--- a/data/youtube_live_chats/complete/check_20210504_live_chat.xlsx
+++ b/data/youtube_live_chats/complete/check_20210504_live_chat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA91EE4-8095-4FBA-AEDC-F40ED3A014A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A1B5AE-A0A4-4896-B72A-20D15878F9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="-15975" windowWidth="23730" windowHeight="15975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="20210504_live_chat" sheetId="1" r:id="rId1"/>
@@ -2981,9 +2981,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3570,12 +3567,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3935,19 +3935,20 @@
   <dimension ref="A1:C947"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44320.702210648145</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -3958,7 +3959,7 @@
       <c r="A2" s="1">
         <v>44320.705324074072</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -3969,7 +3970,7 @@
       <c r="A3" s="1">
         <v>44320.705567129633</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -3980,7 +3981,7 @@
       <c r="A4" s="1">
         <v>44320.706238425926</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -3991,7 +3992,7 @@
       <c r="A5" s="1">
         <v>44320.706377314818</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -4002,7 +4003,7 @@
       <c r="A6" s="1">
         <v>44320.70689814815</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
@@ -4013,7 +4014,7 @@
       <c r="A7" s="1">
         <v>44320.70721064815</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -4024,7 +4025,7 @@
       <c r="A8" s="1">
         <v>44320.70752314815</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -4035,7 +4036,7 @@
       <c r="A9" s="1">
         <v>44320.707557870373</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -4046,7 +4047,7 @@
       <c r="A10" s="1">
         <v>44320.707604166666</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
@@ -4057,7 +4058,7 @@
       <c r="A11" s="1">
         <v>44320.707638888889</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
@@ -4068,7 +4069,7 @@
       <c r="A12" s="1">
         <v>44320.707800925928</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -4079,7 +4080,7 @@
       <c r="A13" s="1">
         <v>44320.707881944443</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
@@ -4090,7 +4091,7 @@
       <c r="A14" s="1">
         <v>44320.707997685182</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
@@ -4101,7 +4102,7 @@
       <c r="A15" s="1">
         <v>44320.708009259259</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -4112,7 +4113,7 @@
       <c r="A16" s="1">
         <v>44320.708310185182</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
@@ -4123,7 +4124,7 @@
       <c r="A17" s="1">
         <v>44320.708310185182</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
@@ -4134,7 +4135,7 @@
       <c r="A18" s="1">
         <v>44320.708437499998</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
@@ -4145,7 +4146,7 @@
       <c r="A19" s="1">
         <v>44320.70853009259</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
@@ -4156,7 +4157,7 @@
       <c r="A20" s="1">
         <v>44320.708680555559</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
@@ -4167,7 +4168,7 @@
       <c r="A21" s="1">
         <v>44320.708726851852</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
@@ -4178,7 +4179,7 @@
       <c r="A22" s="1">
         <v>44320.708854166667</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
@@ -4189,7 +4190,7 @@
       <c r="A23" s="1">
         <v>44320.708854166667</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
@@ -4200,7 +4201,7 @@
       <c r="A24" s="1">
         <v>44320.708958333336</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" t="s">
@@ -4211,7 +4212,7 @@
       <c r="A25" s="1">
         <v>44320.708993055552</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -4222,7 +4223,7 @@
       <c r="A26" s="1">
         <v>44320.709027777775</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
@@ -4233,7 +4234,7 @@
       <c r="A27" s="1">
         <v>44320.709097222221</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
@@ -4244,7 +4245,7 @@
       <c r="A28" s="1">
         <v>44320.709189814814</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" t="s">
@@ -4255,7 +4256,7 @@
       <c r="A29" s="1">
         <v>44320.709305555552</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
@@ -4266,7 +4267,7 @@
       <c r="A30" s="1">
         <v>44320.709398148145</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
@@ -4277,7 +4278,7 @@
       <c r="A31" s="1">
         <v>44320.709444444445</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C31" t="s">
@@ -4288,7 +4289,7 @@
       <c r="A32" s="1">
         <v>44320.709467592591</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C32" t="s">
@@ -4299,7 +4300,7 @@
       <c r="A33" s="1">
         <v>44320.70957175926</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
@@ -4310,7 +4311,7 @@
       <c r="A34" s="1">
         <v>44320.709872685184</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
@@ -4321,7 +4322,7 @@
       <c r="A35" s="1">
         <v>44320.709930555553</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
@@ -4332,7 +4333,7 @@
       <c r="A36" s="1">
         <v>44320.709965277776</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
@@ -4343,7 +4344,7 @@
       <c r="A37" s="1">
         <v>44320.710231481484</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C37" t="s">
@@ -4354,7 +4355,7 @@
       <c r="A38" s="1">
         <v>44320.710243055553</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
@@ -4365,7 +4366,7 @@
       <c r="A39" s="1">
         <v>44320.710266203707</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C39" t="s">
@@ -4376,7 +4377,7 @@
       <c r="A40" s="1">
         <v>44320.710277777776</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
@@ -4387,7 +4388,7 @@
       <c r="A41" s="1">
         <v>44320.710324074076</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C41" t="s">
@@ -4398,7 +4399,7 @@
       <c r="A42" s="1">
         <v>44320.710358796299</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C42" t="s">
@@ -4409,7 +4410,7 @@
       <c r="A43" s="1">
         <v>44320.710497685184</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C43" t="s">
@@ -4420,7 +4421,7 @@
       <c r="A44" s="1">
         <v>44320.710509259261</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C44" t="s">
@@ -4431,7 +4432,7 @@
       <c r="A45" s="1">
         <v>44320.710532407407</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -4442,7 +4443,7 @@
       <c r="A46" s="1">
         <v>44320.710532407407</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C46" t="s">
@@ -4453,7 +4454,7 @@
       <c r="A47" s="1">
         <v>44320.710729166669</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C47" t="s">
@@ -4464,7 +4465,7 @@
       <c r="A48" s="1">
         <v>44320.710729166669</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
@@ -4475,7 +4476,7 @@
       <c r="A49" s="1">
         <v>44320.710775462961</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C49" t="s">
@@ -4486,7 +4487,7 @@
       <c r="A50" s="1">
         <v>44320.710821759261</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
@@ -4497,7 +4498,7 @@
       <c r="A51" s="1">
         <v>44320.710821759261</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C51" t="s">
@@ -4508,7 +4509,7 @@
       <c r="A52" s="1">
         <v>44320.710833333331</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C52" t="s">
@@ -4519,7 +4520,7 @@
       <c r="A53" s="1">
         <v>44320.710856481484</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C53" t="s">
@@ -4530,7 +4531,7 @@
       <c r="A54" s="1">
         <v>44320.710902777777</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C54" t="s">
@@ -4541,7 +4542,7 @@
       <c r="A55" s="1">
         <v>44320.711076388892</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="s">
@@ -4552,7 +4553,7 @@
       <c r="A56" s="1">
         <v>44320.711145833331</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="s">
@@ -4563,7 +4564,7 @@
       <c r="A57" s="1">
         <v>44320.711157407408</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C57" t="s">
@@ -4574,7 +4575,7 @@
       <c r="A58" s="1">
         <v>44320.71125</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C58" t="s">
@@ -4585,7 +4586,7 @@
       <c r="A59" s="1">
         <v>44320.711261574077</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C59" t="s">
@@ -4596,7 +4597,7 @@
       <c r="A60" s="1">
         <v>44320.711400462962</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C60" t="s">
@@ -4607,7 +4608,7 @@
       <c r="A61" s="1">
         <v>44320.711446759262</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C61" t="s">
@@ -4618,7 +4619,7 @@
       <c r="A62" s="1">
         <v>44320.711747685185</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C62" t="s">
@@ -4629,7 +4630,7 @@
       <c r="A63" s="1">
         <v>44320.711770833332</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C63" t="s">
@@ -4640,7 +4641,7 @@
       <c r="A64" s="1">
         <v>44320.711782407408</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C64" t="s">
@@ -4651,7 +4652,7 @@
       <c r="A65" s="1">
         <v>44320.711782407408</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
@@ -4662,7 +4663,7 @@
       <c r="A66" s="1">
         <v>44320.711805555555</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
@@ -4673,7 +4674,7 @@
       <c r="A67" s="1">
         <v>44320.711851851855</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C67" t="s">
@@ -4684,7 +4685,7 @@
       <c r="A68" s="1">
         <v>44320.711875000001</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C68" t="s">
@@ -4695,7 +4696,7 @@
       <c r="A69" s="1">
         <v>44320.711921296293</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C69" t="s">
@@ -4706,7 +4707,7 @@
       <c r="A70" s="1">
         <v>44320.711921296293</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
@@ -4717,7 +4718,7 @@
       <c r="A71" s="1">
         <v>44320.711921296293</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
@@ -4728,7 +4729,7 @@
       <c r="A72" s="1">
         <v>44320.711944444447</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C72" t="s">
@@ -4739,7 +4740,7 @@
       <c r="A73" s="1">
         <v>44320.712048611109</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
@@ -4750,7 +4751,7 @@
       <c r="A74" s="1">
         <v>44320.712060185186</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="s">
@@ -4761,7 +4762,7 @@
       <c r="A75" s="1">
         <v>44320.712141203701</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C75" t="s">
@@ -4772,7 +4773,7 @@
       <c r="A76" s="1">
         <v>44320.712141203701</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
@@ -4783,7 +4784,7 @@
       <c r="A77" s="1">
         <v>44320.712164351855</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C77" t="s">
@@ -4794,7 +4795,7 @@
       <c r="A78" s="1">
         <v>44320.71234953704</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
@@ -4805,7 +4806,7 @@
       <c r="A79" s="1">
         <v>44320.712395833332</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
@@ -4816,7 +4817,7 @@
       <c r="A80" s="1">
         <v>44320.712442129632</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C80" t="s">
@@ -4827,7 +4828,7 @@
       <c r="A81" s="1">
         <v>44320.712534722225</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C81" t="s">
@@ -4838,7 +4839,7 @@
       <c r="A82" s="1">
         <v>44320.712581018517</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C82" t="s">
@@ -4849,7 +4850,7 @@
       <c r="A83" s="1">
         <v>44320.71261574074</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
@@ -4860,7 +4861,7 @@
       <c r="A84" s="1">
         <v>44320.712858796294</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C84" t="s">
@@ -4871,7 +4872,7 @@
       <c r="A85" s="1">
         <v>44320.713206018518</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C85" t="s">
@@ -4882,7 +4883,7 @@
       <c r="A86" s="1">
         <v>44320.713263888887</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C86" t="s">
@@ -4893,7 +4894,7 @@
       <c r="A87" s="1">
         <v>44320.71329861111</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C87" t="s">
@@ -4904,7 +4905,7 @@
       <c r="A88" s="1">
         <v>44320.71334490741</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C88" t="s">
@@ -4915,7 +4916,7 @@
       <c r="A89" s="1">
         <v>44320.713356481479</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C89" t="s">
@@ -4926,7 +4927,7 @@
       <c r="A90" s="1">
         <v>44320.713368055556</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
@@ -4937,7 +4938,7 @@
       <c r="A91" s="1">
         <v>44320.713414351849</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
@@ -4948,7 +4949,7 @@
       <c r="A92" s="1">
         <v>44320.713460648149</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C92" t="s">
@@ -4959,7 +4960,7 @@
       <c r="A93" s="1">
         <v>44320.713483796295</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C93" t="s">
@@ -4970,7 +4971,7 @@
       <c r="A94" s="1">
         <v>44320.713530092595</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
@@ -4981,7 +4982,7 @@
       <c r="A95" s="1">
         <v>44320.713553240741</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C95" t="s">
@@ -4992,7 +4993,7 @@
       <c r="A96" s="1">
         <v>44320.713576388887</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
@@ -5003,7 +5004,7 @@
       <c r="A97" s="1">
         <v>44320.713576388887</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C97" t="s">
@@ -5014,7 +5015,7 @@
       <c r="A98" s="1">
         <v>44320.713634259257</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C98" t="s">
@@ -5025,7 +5026,7 @@
       <c r="A99" s="1">
         <v>44320.713750000003</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C99" t="s">
@@ -5036,7 +5037,7 @@
       <c r="A100" s="1">
         <v>44320.713796296295</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C100" t="s">
@@ -5047,7 +5048,7 @@
       <c r="A101" s="1">
         <v>44320.713807870372</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C101" t="s">
@@ -5058,7 +5059,7 @@
       <c r="A102" s="1">
         <v>44320.714016203703</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C102" t="s">
@@ -5069,7 +5070,7 @@
       <c r="A103" s="1">
         <v>44320.714108796295</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C103" t="s">
@@ -5080,7 +5081,7 @@
       <c r="A104" s="1">
         <v>44320.714120370372</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C104" t="s">
@@ -5091,7 +5092,7 @@
       <c r="A105" s="1">
         <v>44320.714212962965</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C105" t="s">
@@ -5102,7 +5103,7 @@
       <c r="A106" s="1">
         <v>44320.714270833334</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
@@ -5113,7 +5114,7 @@
       <c r="A107" s="1">
         <v>44320.714398148149</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C107" t="s">
@@ -5124,7 +5125,7 @@
       <c r="A108" s="1">
         <v>44320.714502314811</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C108" t="s">
@@ -5135,7 +5136,7 @@
       <c r="A109" s="1">
         <v>44320.714513888888</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C109" t="s">
@@ -5146,7 +5147,7 @@
       <c r="A110" s="1">
         <v>44320.714803240742</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C110" t="s">
@@ -5157,7 +5158,7 @@
       <c r="A111" s="1">
         <v>44320.714849537035</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C111" t="s">
@@ -5168,7 +5169,7 @@
       <c r="A112" s="1">
         <v>44320.714918981481</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
@@ -5179,7 +5180,7 @@
       <c r="A113" s="1">
         <v>44320.715057870373</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C113" t="s">
@@ -5190,7 +5191,7 @@
       <c r="A114" s="1">
         <v>44320.715069444443</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C114" t="s">
@@ -5201,7 +5202,7 @@
       <c r="A115" s="1">
         <v>44320.715185185189</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C115" t="s">
@@ -5212,7 +5213,7 @@
       <c r="A116" s="1">
         <v>44320.715231481481</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C116" t="s">
@@ -5223,7 +5224,7 @@
       <c r="A117" s="1">
         <v>44320.715231481481</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="s">
@@ -5234,7 +5235,7 @@
       <c r="A118" s="1">
         <v>44320.715266203704</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C118" t="s">
@@ -5245,7 +5246,7 @@
       <c r="A119" s="1">
         <v>44320.715428240743</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C119" t="s">
@@ -5256,7 +5257,7 @@
       <c r="A120" s="1">
         <v>44320.715532407405</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
@@ -5267,7 +5268,7 @@
       <c r="A121" s="1">
         <v>44320.715555555558</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C121" t="s">
@@ -5278,7 +5279,7 @@
       <c r="A122" s="1">
         <v>44320.715601851851</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C122" t="s">
@@ -5289,7 +5290,7 @@
       <c r="A123" s="1">
         <v>44320.715624999997</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C123" t="s">
@@ -5300,7 +5301,7 @@
       <c r="A124" s="1">
         <v>44320.715682870374</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C124" t="s">
@@ -5311,7 +5312,7 @@
       <c r="A125" s="1">
         <v>44320.71570601852</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C125" t="s">
@@ -5322,7 +5323,7 @@
       <c r="A126" s="1">
         <v>44320.71570601852</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C126" t="s">
@@ -5333,7 +5334,7 @@
       <c r="A127" s="1">
         <v>44320.715810185182</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C127" t="s">
@@ -5344,7 +5345,7 @@
       <c r="A128" s="1">
         <v>44320.715844907405</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C128" t="s">
@@ -5355,7 +5356,7 @@
       <c r="A129" s="1">
         <v>44320.715856481482</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C129" t="s">
@@ -5366,7 +5367,7 @@
       <c r="A130" s="1">
         <v>44320.715868055559</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C130" t="s">
@@ -5377,7 +5378,7 @@
       <c r="A131" s="1">
         <v>44320.715960648151</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C131" t="s">
@@ -5388,7 +5389,7 @@
       <c r="A132" s="1">
         <v>44320.715983796297</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C132" t="s">
@@ -5399,7 +5400,7 @@
       <c r="A133" s="1">
         <v>44320.715995370374</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C133" t="s">
@@ -5410,7 +5411,7 @@
       <c r="A134" s="1">
         <v>44320.716053240743</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C134" t="s">
@@ -5421,7 +5422,7 @@
       <c r="A135" s="1">
         <v>44320.716099537036</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C135" t="s">
@@ -5432,7 +5433,7 @@
       <c r="A136" s="1">
         <v>44320.716099537036</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C136" t="s">
@@ -5443,7 +5444,7 @@
       <c r="A137" s="1">
         <v>44320.716134259259</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C137" t="s">
@@ -5454,7 +5455,7 @@
       <c r="A138" s="1">
         <v>44320.716168981482</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C138" t="s">
@@ -5465,7 +5466,7 @@
       <c r="A139" s="1">
         <v>44320.716226851851</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C139" t="s">
@@ -5476,7 +5477,7 @@
       <c r="A140" s="1">
         <v>44320.716238425928</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C140" t="s">
@@ -5487,7 +5488,7 @@
       <c r="A141" s="1">
         <v>44320.716249999998</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="s">
@@ -5498,7 +5499,7 @@
       <c r="A142" s="1">
         <v>44320.716249999998</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C142" t="s">
@@ -5509,7 +5510,7 @@
       <c r="A143" s="1">
         <v>44320.716307870367</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C143" t="s">
@@ -5520,7 +5521,7 @@
       <c r="A144" s="1">
         <v>44320.716319444444</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C144" t="s">
@@ -5531,7 +5532,7 @@
       <c r="A145" s="1">
         <v>44320.716331018521</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C145" t="s">
@@ -5542,7 +5543,7 @@
       <c r="A146" s="1">
         <v>44320.716377314813</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C146" t="s">
@@ -5553,7 +5554,7 @@
       <c r="A147" s="1">
         <v>44320.716400462959</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C147" t="s">
@@ -5564,7 +5565,7 @@
       <c r="A148" s="1">
         <v>44320.716458333336</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C148" t="s">
@@ -5575,7 +5576,7 @@
       <c r="A149" s="1">
         <v>44320.716469907406</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="s">
@@ -5586,7 +5587,7 @@
       <c r="A150" s="1">
         <v>44320.716504629629</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C150" t="s">
@@ -5597,7 +5598,7 @@
       <c r="A151" s="1">
         <v>44320.716550925928</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C151" t="s">
@@ -5608,7 +5609,7 @@
       <c r="A152" s="1">
         <v>44320.716550925928</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C152" t="s">
@@ -5619,7 +5620,7 @@
       <c r="A153" s="1">
         <v>44320.716689814813</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C153" t="s">
@@ -5630,7 +5631,7 @@
       <c r="A154" s="1">
         <v>44320.71671296296</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C154" t="s">
@@ -5641,7 +5642,7 @@
       <c r="A155" s="1">
         <v>44320.71671296296</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
@@ -5652,7 +5653,7 @@
       <c r="A156" s="1">
         <v>44320.716828703706</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C156" t="s">
@@ -5663,7 +5664,7 @@
       <c r="A157" s="1">
         <v>44320.716840277775</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C157" t="s">
@@ -5674,7 +5675,7 @@
       <c r="A158" s="1">
         <v>44320.716886574075</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C158" t="s">
@@ -5685,7 +5686,7 @@
       <c r="A159" s="1">
         <v>44320.716921296298</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C159" t="s">
@@ -5696,7 +5697,7 @@
       <c r="A160" s="1">
         <v>44320.716932870368</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C160" t="s">
@@ -5707,7 +5708,7 @@
       <c r="A161" s="1">
         <v>44320.716956018521</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C161" t="s">
@@ -5718,7 +5719,7 @@
       <c r="A162" s="1">
         <v>44320.716967592591</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C162" t="s">
@@ -5729,7 +5730,7 @@
       <c r="A163" s="1">
         <v>44320.717187499999</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C163" t="s">
@@ -5740,7 +5741,7 @@
       <c r="A164" s="1">
         <v>44320.717187499999</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C164" t="s">
@@ -5751,7 +5752,7 @@
       <c r="A165" s="1">
         <v>44320.717326388891</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C165" t="s">
@@ -5762,7 +5763,7 @@
       <c r="A166" s="1">
         <v>44320.717326388891</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="s">
@@ -5773,7 +5774,7 @@
       <c r="A167" s="1">
         <v>44320.717361111114</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
@@ -5784,7 +5785,7 @@
       <c r="A168" s="1">
         <v>44320.717418981483</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C168" t="s">
@@ -5795,7 +5796,7 @@
       <c r="A169" s="1">
         <v>44320.717662037037</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C169" t="s">
@@ -5806,7 +5807,7 @@
       <c r="A170" s="1">
         <v>44320.717673611114</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C170" t="s">
@@ -5817,7 +5818,7 @@
       <c r="A171" s="1">
         <v>44320.717685185184</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C171" t="s">
@@ -5828,7 +5829,7 @@
       <c r="A172" s="1">
         <v>44320.71775462963</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C172" t="s">
@@ -5839,7 +5840,7 @@
       <c r="A173" s="1">
         <v>44320.71775462963</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C173" t="s">
@@ -5850,7 +5851,7 @@
       <c r="A174" s="1">
         <v>44320.717858796299</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
@@ -5861,7 +5862,7 @@
       <c r="A175" s="1">
         <v>44320.717916666668</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C175" t="s">
@@ -5872,7 +5873,7 @@
       <c r="A176" s="1">
         <v>44320.717951388891</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C176" t="s">
@@ -5883,7 +5884,7 @@
       <c r="A177" s="1">
         <v>44320.717951388891</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C177" t="s">
@@ -5894,7 +5895,7 @@
       <c r="A178" s="1">
         <v>44320.718032407407</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C178" t="s">
@@ -5905,7 +5906,7 @@
       <c r="A179" s="1">
         <v>44320.718032407407</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C179" t="s">
@@ -5916,7 +5917,7 @@
       <c r="A180" s="1">
         <v>44320.718124999999</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C180" t="s">
@@ -5927,7 +5928,7 @@
       <c r="A181" s="1">
         <v>44320.718124999999</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C181" t="s">
@@ -5938,7 +5939,7 @@
       <c r="A182" s="1">
         <v>44320.718148148146</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C182" t="s">
@@ -5949,7 +5950,7 @@
       <c r="A183" s="1">
         <v>44320.718148148146</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C183" t="s">
@@ -5960,7 +5961,7 @@
       <c r="A184" s="1">
         <v>44320.718217592592</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C184" t="s">
@@ -5971,7 +5972,7 @@
       <c r="A185" s="1">
         <v>44320.718275462961</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C185" t="s">
@@ -5982,7 +5983,7 @@
       <c r="A186" s="1">
         <v>44320.718344907407</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C186" t="s">
@@ -5993,7 +5994,7 @@
       <c r="A187" s="1">
         <v>44320.718460648146</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C187" t="s">
@@ -6004,7 +6005,7 @@
       <c r="A188" s="1">
         <v>44320.7187962963</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C188" t="s">
@@ -6015,7 +6016,7 @@
       <c r="A189" s="1">
         <v>44320.718935185185</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C189" t="s">
@@ -6026,7 +6027,7 @@
       <c r="A190" s="1">
         <v>44320.718969907408</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C190" t="s">
@@ -6037,7 +6038,7 @@
       <c r="A191" s="1">
         <v>44320.718981481485</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C191" t="s">
@@ -6048,7 +6049,7 @@
       <c r="A192" s="1">
         <v>44320.718993055554</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C192" t="s">
@@ -6059,7 +6060,7 @@
       <c r="A193" s="1">
         <v>44320.7190162037</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C193" t="s">
@@ -6070,7 +6071,7 @@
       <c r="A194" s="1">
         <v>44320.719074074077</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C194" t="s">
@@ -6081,7 +6082,7 @@
       <c r="A195" s="1">
         <v>44320.719085648147</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C195" t="s">
@@ -6092,7 +6093,7 @@
       <c r="A196" s="1">
         <v>44320.719201388885</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C196" t="s">
@@ -6103,7 +6104,7 @@
       <c r="A197" s="1">
         <v>44320.719224537039</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C197" t="s">
@@ -6114,7 +6115,7 @@
       <c r="A198" s="1">
         <v>44320.719270833331</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C198" t="s">
@@ -6125,7 +6126,7 @@
       <c r="A199" s="1">
         <v>44320.719270833331</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C199" t="s">
@@ -6136,7 +6137,7 @@
       <c r="A200" s="1">
         <v>44320.719293981485</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C200" t="s">
@@ -6147,7 +6148,7 @@
       <c r="A201" s="1">
         <v>44320.719386574077</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C201" t="s">
@@ -6158,7 +6159,7 @@
       <c r="A202" s="1">
         <v>44320.719386574077</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C202" t="s">
@@ -6169,7 +6170,7 @@
       <c r="A203" s="1">
         <v>44320.719409722224</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C203" t="s">
@@ -6180,7 +6181,7 @@
       <c r="A204" s="1">
         <v>44320.719490740739</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C204" t="s">
@@ -6191,7 +6192,7 @@
       <c r="A205" s="1">
         <v>44320.719502314816</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C205" t="s">
@@ -6202,7 +6203,7 @@
       <c r="A206" s="1">
         <v>44320.719513888886</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C206" t="s">
@@ -6213,7 +6214,7 @@
       <c r="A207" s="1">
         <v>44320.719537037039</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C207" t="s">
@@ -6224,7 +6225,7 @@
       <c r="A208" s="1">
         <v>44320.719571759262</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C208" t="s">
@@ -6235,7 +6236,7 @@
       <c r="A209" s="1">
         <v>44320.719583333332</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C209" t="s">
@@ -6246,7 +6247,7 @@
       <c r="A210" s="1">
         <v>44320.719618055555</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C210" t="s">
@@ -6257,7 +6258,7 @@
       <c r="A211" s="1">
         <v>44320.719733796293</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C211" t="s">
@@ -6268,7 +6269,7 @@
       <c r="A212" s="1">
         <v>44320.71979166667</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C212" t="s">
@@ -6279,7 +6280,7 @@
       <c r="A213" s="1">
         <v>44320.719849537039</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C213" t="s">
@@ -6290,7 +6291,7 @@
       <c r="A214" s="1">
         <v>44320.719895833332</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C214" t="s">
@@ -6301,7 +6302,7 @@
       <c r="A215" s="1">
         <v>44320.719918981478</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C215" t="s">
@@ -6312,7 +6313,7 @@
       <c r="A216" s="1">
         <v>44320.719930555555</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C216" t="s">
@@ -6323,7 +6324,7 @@
       <c r="A217" s="1">
         <v>44320.719953703701</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C217" t="s">
@@ -6334,7 +6335,7 @@
       <c r="A218" s="1">
         <v>44320.720011574071</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C218" t="s">
@@ -6345,7 +6346,7 @@
       <c r="A219" s="1">
         <v>44320.720081018517</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C219" t="s">
@@ -6356,7 +6357,7 @@
       <c r="A220" s="1">
         <v>44320.720127314817</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C220" t="s">
@@ -6367,7 +6368,7 @@
       <c r="A221" s="1">
         <v>44320.720138888886</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C221" t="s">
@@ -6378,7 +6379,7 @@
       <c r="A222" s="1">
         <v>44320.720196759263</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C222" t="s">
@@ -6389,7 +6390,7 @@
       <c r="A223" s="1">
         <v>44320.720231481479</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C223" t="s">
@@ -6400,7 +6401,7 @@
       <c r="A224" s="1">
         <v>44320.720243055555</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C224" t="s">
@@ -6411,7 +6412,7 @@
       <c r="A225" s="1">
         <v>44320.720254629632</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C225" t="s">
@@ -6422,7 +6423,7 @@
       <c r="A226" s="1">
         <v>44320.720277777778</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C226" t="s">
@@ -6433,7 +6434,7 @@
       <c r="A227" s="1">
         <v>44320.720277777778</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C227" t="s">
@@ -6444,7 +6445,7 @@
       <c r="A228" s="1">
         <v>44320.720289351855</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C228" t="s">
@@ -6455,7 +6456,7 @@
       <c r="A229" s="1">
         <v>44320.720289351855</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C229" t="s">
@@ -6466,7 +6467,7 @@
       <c r="A230" s="1">
         <v>44320.720289351855</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C230" t="s">
@@ -6477,7 +6478,7 @@
       <c r="A231" s="1">
         <v>44320.720347222225</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C231" t="s">
@@ -6488,7 +6489,7 @@
       <c r="A232" s="1">
         <v>44320.720543981479</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C232" t="s">
@@ -6499,7 +6500,7 @@
       <c r="A233" s="1">
         <v>44320.720578703702</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C233" t="s">
@@ -6510,7 +6511,7 @@
       <c r="A234" s="1">
         <v>44320.720601851855</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C234" t="s">
@@ -6521,7 +6522,7 @@
       <c r="A235" s="1">
         <v>44320.720694444448</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C235" t="s">
@@ -6532,7 +6533,7 @@
       <c r="A236" s="1">
         <v>44320.720752314817</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C236" t="s">
@@ -6543,7 +6544,7 @@
       <c r="A237" s="1">
         <v>44320.720775462964</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C237" t="s">
@@ -6554,7 +6555,7 @@
       <c r="A238" s="1">
         <v>44320.72078703704</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C238" t="s">
@@ -6565,7 +6566,7 @@
       <c r="A239" s="1">
         <v>44320.720856481479</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C239" t="s">
@@ -6576,7 +6577,7 @@
       <c r="A240" s="1">
         <v>44320.720868055556</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C240" t="s">
@@ -6587,7 +6588,7 @@
       <c r="A241" s="1">
         <v>44320.720902777779</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C241" t="s">
@@ -6598,7 +6599,7 @@
       <c r="A242" s="1">
         <v>44320.720914351848</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C242" t="s">
@@ -6609,7 +6610,7 @@
       <c r="A243" s="1">
         <v>44320.720949074072</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C243" t="s">
@@ -6620,7 +6621,7 @@
       <c r="A244" s="1">
         <v>44320.720960648148</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C244" t="s">
@@ -6631,7 +6632,7 @@
       <c r="A245" s="1">
         <v>44320.720995370371</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C245" t="s">
@@ -6642,7 +6643,7 @@
       <c r="A246" s="1">
         <v>44320.721053240741</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C246" t="s">
@@ -6653,7 +6654,7 @@
       <c r="A247" s="1">
         <v>44320.721168981479</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C247" t="s">
@@ -6664,7 +6665,7 @@
       <c r="A248" s="1">
         <v>44320.721215277779</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C248" t="s">
@@ -6675,7 +6676,7 @@
       <c r="A249" s="1">
         <v>44320.721238425926</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C249" t="s">
@@ -6686,7 +6687,7 @@
       <c r="A250" s="1">
         <v>44320.721238425926</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C250" t="s">
@@ -6697,7 +6698,7 @@
       <c r="A251" s="1">
         <v>44320.721238425926</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C251" t="s">
@@ -6708,7 +6709,7 @@
       <c r="A252" s="1">
         <v>44320.721273148149</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C252" t="s">
@@ -6719,7 +6720,7 @@
       <c r="A253" s="1">
         <v>44320.72148148148</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C253" t="s">
@@ -6730,7 +6731,7 @@
       <c r="A254" s="1">
         <v>44320.721493055556</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C254" t="s">
@@ -6741,7 +6742,7 @@
       <c r="A255" s="1">
         <v>44320.72152777778</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C255" t="s">
@@ -6752,7 +6753,7 @@
       <c r="A256" s="1">
         <v>44320.721574074072</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C256" t="s">
@@ -6763,7 +6764,7 @@
       <c r="A257" s="1">
         <v>44320.721597222226</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C257" t="s">
@@ -6774,7 +6775,7 @@
       <c r="A258" s="1">
         <v>44320.721608796295</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C258" t="s">
@@ -6785,7 +6786,7 @@
       <c r="A259" s="1">
         <v>44320.721655092595</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C259" t="s">
@@ -6796,7 +6797,7 @@
       <c r="A260" s="1">
         <v>44320.721666666665</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C260" t="s">
@@ -6807,7 +6808,7 @@
       <c r="A261" s="1">
         <v>44320.721724537034</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C261" t="s">
@@ -6818,7 +6819,7 @@
       <c r="A262" s="1">
         <v>44320.721770833334</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C262" t="s">
@@ -6829,7 +6830,7 @@
       <c r="A263" s="1">
         <v>44320.721782407411</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C263" t="s">
@@ -6840,7 +6841,7 @@
       <c r="A264" s="1">
         <v>44320.721782407411</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C264" t="s">
@@ -6851,7 +6852,7 @@
       <c r="A265" s="1">
         <v>44320.721805555557</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C265" t="s">
@@ -6862,7 +6863,7 @@
       <c r="A266" s="1">
         <v>44320.721805555557</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C266" t="s">
@@ -6873,7 +6874,7 @@
       <c r="A267" s="1">
         <v>44320.721851851849</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C267" t="s">
@@ -6884,7 +6885,7 @@
       <c r="A268" s="1">
         <v>44320.721944444442</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C268" t="s">
@@ -6895,7 +6896,7 @@
       <c r="A269" s="1">
         <v>44320.722002314818</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C269" t="s">
@@ -6906,7 +6907,7 @@
       <c r="A270" s="1">
         <v>44320.722025462965</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C270" t="s">
@@ -6917,7 +6918,7 @@
       <c r="A271" s="1">
         <v>44320.722083333334</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C271" t="s">
@@ -6928,7 +6929,7 @@
       <c r="A272" s="1">
         <v>44320.722118055557</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C272" t="s">
@@ -6939,7 +6940,7 @@
       <c r="A273" s="1">
         <v>44320.722141203703</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C273" t="s">
@@ -6950,7 +6951,7 @@
       <c r="A274" s="1">
         <v>44320.72215277778</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C274" t="s">
@@ -6961,7 +6962,7 @@
       <c r="A275" s="1">
         <v>44320.72215277778</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C275" t="s">
@@ -6972,7 +6973,7 @@
       <c r="A276" s="1">
         <v>44320.722199074073</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C276" t="s">
@@ -6983,7 +6984,7 @@
       <c r="A277" s="1">
         <v>44320.722245370373</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C277" t="s">
@@ -6994,7 +6995,7 @@
       <c r="A278" s="1">
         <v>44320.722280092596</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C278" t="s">
@@ -7005,7 +7006,7 @@
       <c r="A279" s="1">
         <v>44320.722326388888</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C279" t="s">
@@ -7016,7 +7017,7 @@
       <c r="A280" s="1">
         <v>44320.722349537034</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C280" t="s">
@@ -7027,7 +7028,7 @@
       <c r="A281" s="1">
         <v>44320.722395833334</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C281" t="s">
@@ -7038,7 +7039,7 @@
       <c r="A282" s="1">
         <v>44320.722488425927</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C282" t="s">
@@ -7049,7 +7050,7 @@
       <c r="A283" s="1">
         <v>44320.722500000003</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C283" t="s">
@@ -7060,7 +7061,7 @@
       <c r="A284" s="1">
         <v>44320.722627314812</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C284" t="s">
@@ -7071,7 +7072,7 @@
       <c r="A285" s="1">
         <v>44320.722638888888</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C285" t="s">
@@ -7082,7 +7083,7 @@
       <c r="A286" s="1">
         <v>44320.722650462965</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C286" t="s">
@@ -7093,7 +7094,7 @@
       <c r="A287" s="1">
         <v>44320.722662037035</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C287" t="s">
@@ -7104,7 +7105,7 @@
       <c r="A288" s="1">
         <v>44320.722743055558</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C288" t="s">
@@ -7115,7 +7116,7 @@
       <c r="A289" s="1">
         <v>44320.722754629627</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C289" t="s">
@@ -7126,7 +7127,7 @@
       <c r="A290" s="1">
         <v>44320.722766203704</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C290" t="s">
@@ -7137,7 +7138,7 @@
       <c r="A291" s="1">
         <v>44320.72284722222</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C291" t="s">
@@ -7148,7 +7149,7 @@
       <c r="A292" s="1">
         <v>44320.722951388889</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C292" t="s">
@@ -7159,7 +7160,7 @@
       <c r="A293" s="1">
         <v>44320.723009259258</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C293" t="s">
@@ -7170,7 +7171,7 @@
       <c r="A294" s="1">
         <v>44320.723009259258</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C294" t="s">
@@ -7181,7 +7182,7 @@
       <c r="A295" s="1">
         <v>44320.723055555558</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C295" t="s">
@@ -7192,7 +7193,7 @@
       <c r="A296" s="1">
         <v>44320.723078703704</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C296" t="s">
@@ -7203,7 +7204,7 @@
       <c r="A297" s="1">
         <v>44320.723194444443</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C297" t="s">
@@ -7214,7 +7215,7 @@
       <c r="A298" s="1">
         <v>44320.723194444443</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C298" t="s">
@@ -7225,7 +7226,7 @@
       <c r="A299" s="1">
         <v>44320.723310185182</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C299" t="s">
@@ -7236,7 +7237,7 @@
       <c r="A300" s="1">
         <v>44320.723333333335</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C300" t="s">
@@ -7247,7 +7248,7 @@
       <c r="A301" s="1">
         <v>44320.723425925928</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C301" t="s">
@@ -7258,7 +7259,7 @@
       <c r="A302" s="1">
         <v>44320.723437499997</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C302" t="s">
@@ -7269,7 +7270,7 @@
       <c r="A303" s="1">
         <v>44320.723483796297</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C303" t="s">
@@ -7280,7 +7281,7 @@
       <c r="A304" s="1">
         <v>44320.723715277774</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C304" t="s">
@@ -7291,7 +7292,7 @@
       <c r="A305" s="1">
         <v>44320.72378472222</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C305" t="s">
@@ -7302,7 +7303,7 @@
       <c r="A306" s="1">
         <v>44320.723993055559</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C306" t="s">
@@ -7313,7 +7314,7 @@
       <c r="A307" s="1">
         <v>44320.723993055559</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C307" t="s">
@@ -7324,7 +7325,7 @@
       <c r="A308" s="1">
         <v>44320.724027777775</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C308" t="s">
@@ -7335,7 +7336,7 @@
       <c r="A309" s="1">
         <v>44320.724039351851</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C309" t="s">
@@ -7346,7 +7347,7 @@
       <c r="A310" s="1">
         <v>44320.724074074074</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C310" t="s">
@@ -7357,7 +7358,7 @@
       <c r="A311" s="1">
         <v>44320.724131944444</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C311" t="s">
@@ -7368,7 +7369,7 @@
       <c r="A312" s="1">
         <v>44320.724143518521</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C312" t="s">
@@ -7379,7 +7380,7 @@
       <c r="A313" s="1">
         <v>44320.72415509259</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C313" t="s">
@@ -7390,7 +7391,7 @@
       <c r="A314" s="1">
         <v>44320.724178240744</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C314" t="s">
@@ -7401,7 +7402,7 @@
       <c r="A315" s="1">
         <v>44320.72420138889</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C315" t="s">
@@ -7412,7 +7413,7 @@
       <c r="A316" s="1">
         <v>44320.724247685182</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C316" t="s">
@@ -7423,7 +7424,7 @@
       <c r="A317" s="1">
         <v>44320.724282407406</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C317" t="s">
@@ -7434,7 +7435,7 @@
       <c r="A318" s="1">
         <v>44320.724305555559</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C318" t="s">
@@ -7445,7 +7446,7 @@
       <c r="A319" s="1">
         <v>44320.724374999998</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C319" t="s">
@@ -7456,7 +7457,7 @@
       <c r="A320" s="1">
         <v>44320.724409722221</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C320" t="s">
@@ -7467,7 +7468,7 @@
       <c r="A321" s="1">
         <v>44320.724421296298</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C321" t="s">
@@ -7478,7 +7479,7 @@
       <c r="A322" s="1">
         <v>44320.724444444444</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C322" t="s">
@@ -7489,7 +7490,7 @@
       <c r="A323" s="1">
         <v>44320.724444444444</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C323" t="s">
@@ -7500,7 +7501,7 @@
       <c r="A324" s="1">
         <v>44320.724479166667</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C324" t="s">
@@ -7511,7 +7512,7 @@
       <c r="A325" s="1">
         <v>44320.724479166667</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C325" t="s">
@@ -7522,7 +7523,7 @@
       <c r="A326" s="1">
         <v>44320.724490740744</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="2" t="s">
         <v>381</v>
       </c>
       <c r="C326" t="s">
@@ -7533,7 +7534,7 @@
       <c r="A327" s="1">
         <v>44320.724502314813</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="2" t="s">
         <v>383</v>
       </c>
       <c r="C327" t="s">
@@ -7544,7 +7545,7 @@
       <c r="A328" s="1">
         <v>44320.724606481483</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C328" t="s">
@@ -7555,7 +7556,7 @@
       <c r="A329" s="1">
         <v>44320.724618055552</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C329" t="s">
@@ -7566,7 +7567,7 @@
       <c r="A330" s="1">
         <v>44320.724756944444</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C330" t="s">
@@ -7577,7 +7578,7 @@
       <c r="A331" s="1">
         <v>44320.724803240744</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C331" t="s">
@@ -7588,7 +7589,7 @@
       <c r="A332" s="1">
         <v>44320.724803240744</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C332" t="s">
@@ -7599,7 +7600,7 @@
       <c r="A333" s="1">
         <v>44320.724861111114</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C333" t="s">
@@ -7610,7 +7611,7 @@
       <c r="A334" s="1">
         <v>44320.724907407406</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C334" t="s">
@@ -7621,7 +7622,7 @@
       <c r="A335" s="1">
         <v>44320.725011574075</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="2" t="s">
         <v>392</v>
       </c>
       <c r="C335" t="s">
@@ -7632,7 +7633,7 @@
       <c r="A336" s="1">
         <v>44320.725034722222</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C336" t="s">
@@ -7643,7 +7644,7 @@
       <c r="A337" s="1">
         <v>44320.72515046296</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C337" t="s">
@@ -7654,7 +7655,7 @@
       <c r="A338" s="1">
         <v>44320.725231481483</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C338" t="s">
@@ -7665,7 +7666,7 @@
       <c r="A339" s="1">
         <v>44320.725289351853</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C339" t="s">
@@ -7676,7 +7677,7 @@
       <c r="A340" s="1">
         <v>44320.725393518522</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C340" t="s">
@@ -7687,7 +7688,7 @@
       <c r="A341" s="1">
         <v>44320.725601851853</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C341" t="s">
@@ -7698,7 +7699,7 @@
       <c r="A342" s="1">
         <v>44320.725763888891</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C342" t="s">
@@ -7709,7 +7710,7 @@
       <c r="A343" s="1">
         <v>44320.725810185184</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C343" t="s">
@@ -7720,7 +7721,7 @@
       <c r="A344" s="1">
         <v>44320.726006944446</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C344" t="s">
@@ -7731,7 +7732,7 @@
       <c r="A345" s="1">
         <v>44320.726041666669</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C345" t="s">
@@ -7742,7 +7743,7 @@
       <c r="A346" s="1">
         <v>44320.726076388892</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C346" t="s">
@@ -7753,7 +7754,7 @@
       <c r="A347" s="1">
         <v>44320.726111111115</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C347" t="s">
@@ -7764,7 +7765,7 @@
       <c r="A348" s="1">
         <v>44320.726307870369</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C348" t="s">
@@ -7775,7 +7776,7 @@
       <c r="A349" s="1">
         <v>44320.726354166669</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C349" t="s">
@@ -7786,7 +7787,7 @@
       <c r="A350" s="1">
         <v>44320.726377314815</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C350" t="s">
@@ -7797,7 +7798,7 @@
       <c r="A351" s="1">
         <v>44320.726388888892</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C351" t="s">
@@ -7808,7 +7809,7 @@
       <c r="A352" s="1">
         <v>44320.726458333331</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C352" t="s">
@@ -7819,7 +7820,7 @@
       <c r="A353" s="1">
         <v>44320.726458333331</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C353" t="s">
@@ -7830,7 +7831,7 @@
       <c r="A354" s="1">
         <v>44320.726469907408</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C354" t="s">
@@ -7841,7 +7842,7 @@
       <c r="A355" s="1">
         <v>44320.726527777777</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C355" t="s">
@@ -7852,7 +7853,7 @@
       <c r="A356" s="1">
         <v>44320.726574074077</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C356" t="s">
@@ -7863,7 +7864,7 @@
       <c r="A357" s="1">
         <v>44320.726585648146</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C357" t="s">
@@ -7874,7 +7875,7 @@
       <c r="A358" s="1">
         <v>44320.726631944446</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="2" t="s">
         <v>413</v>
       </c>
       <c r="C358" t="s">
@@ -7885,7 +7886,7 @@
       <c r="A359" s="1">
         <v>44320.726666666669</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C359" t="s">
@@ -7896,7 +7897,7 @@
       <c r="A360" s="1">
         <v>44320.726701388892</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C360" t="s">
@@ -7907,7 +7908,7 @@
       <c r="A361" s="1">
         <v>44320.726712962962</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C361" t="s">
@@ -7918,7 +7919,7 @@
       <c r="A362" s="1">
         <v>44320.726724537039</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C362" t="s">
@@ -7929,7 +7930,7 @@
       <c r="A363" s="1">
         <v>44320.726770833331</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C363" t="s">
@@ -7940,7 +7941,7 @@
       <c r="A364" s="1">
         <v>44320.726921296293</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C364" t="s">
@@ -7951,7 +7952,7 @@
       <c r="A365" s="1">
         <v>44320.72693287037</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C365" t="s">
@@ -7962,7 +7963,7 @@
       <c r="A366" s="1">
         <v>44320.727060185185</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C366" t="s">
@@ -7973,7 +7974,7 @@
       <c r="A367" s="1">
         <v>44320.727071759262</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C367" t="s">
@@ -7984,7 +7985,7 @@
       <c r="A368" s="1">
         <v>44320.727233796293</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C368" t="s">
@@ -7995,7 +7996,7 @@
       <c r="A369" s="1">
         <v>44320.727256944447</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C369" t="s">
@@ -8006,7 +8007,7 @@
       <c r="A370" s="1">
         <v>44320.727349537039</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C370" t="s">
@@ -8017,7 +8018,7 @@
       <c r="A371" s="1">
         <v>44320.727361111109</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C371" t="s">
@@ -8028,7 +8029,7 @@
       <c r="A372" s="1">
         <v>44320.727418981478</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C372" t="s">
@@ -8039,7 +8040,7 @@
       <c r="A373" s="1">
         <v>44320.727500000001</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C373" t="s">
@@ -8050,7 +8051,7 @@
       <c r="A374" s="1">
         <v>44320.72760416667</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C374" t="s">
@@ -8061,7 +8062,7 @@
       <c r="A375" s="1">
         <v>44320.727685185186</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C375" t="s">
@@ -8072,7 +8073,7 @@
       <c r="A376" s="1">
         <v>44320.727696759262</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C376" t="s">
@@ -8083,7 +8084,7 @@
       <c r="A377" s="1">
         <v>44320.727696759262</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C377" t="s">
@@ -8094,7 +8095,7 @@
       <c r="A378" s="1">
         <v>44320.727719907409</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C378" t="s">
@@ -8105,7 +8106,7 @@
       <c r="A379" s="1">
         <v>44320.727743055555</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C379" t="s">
@@ -8116,7 +8117,7 @@
       <c r="A380" s="1">
         <v>44320.727743055555</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C380" t="s">
@@ -8127,7 +8128,7 @@
       <c r="A381" s="1">
         <v>44320.727766203701</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C381" t="s">
@@ -8138,7 +8139,7 @@
       <c r="A382" s="1">
         <v>44320.727951388886</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C382" t="s">
@@ -8149,7 +8150,7 @@
       <c r="A383" s="1">
         <v>44320.72797453704</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C383" t="s">
@@ -8160,7 +8161,7 @@
       <c r="A384" s="1">
         <v>44320.728032407409</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C384" t="s">
@@ -8171,7 +8172,7 @@
       <c r="A385" s="1">
         <v>44320.728032407409</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C385" t="s">
@@ -8182,7 +8183,7 @@
       <c r="A386" s="1">
         <v>44320.728067129632</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C386" t="s">
@@ -8193,7 +8194,7 @@
       <c r="A387" s="1">
         <v>44320.728090277778</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C387" t="s">
@@ -8204,7 +8205,7 @@
       <c r="A388" s="1">
         <v>44320.728194444448</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C388" t="s">
@@ -8215,7 +8216,7 @@
       <c r="A389" s="1">
         <v>44320.728229166663</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C389" t="s">
@@ -8226,7 +8227,7 @@
       <c r="A390" s="1">
         <v>44320.72828703704</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C390" t="s">
@@ -8237,7 +8238,7 @@
       <c r="A391" s="1">
         <v>44320.728321759256</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C391" t="s">
@@ -8248,7 +8249,7 @@
       <c r="A392" s="1">
         <v>44320.728437500002</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C392" t="s">
@@ -8259,7 +8260,7 @@
       <c r="A393" s="1">
         <v>44320.728437500002</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C393" t="s">
@@ -8270,7 +8271,7 @@
       <c r="A394" s="1">
         <v>44320.728472222225</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C394" t="s">
@@ -8281,7 +8282,7 @@
       <c r="A395" s="1">
         <v>44320.728506944448</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C395" t="s">
@@ -8292,7 +8293,7 @@
       <c r="A396" s="1">
         <v>44320.728518518517</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C396" t="s">
@@ -8303,7 +8304,7 @@
       <c r="A397" s="1">
         <v>44320.728518518517</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C397" t="s">
@@ -8314,7 +8315,7 @@
       <c r="A398" s="1">
         <v>44320.72855324074</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C398" t="s">
@@ -8325,7 +8326,7 @@
       <c r="A399" s="1">
         <v>44320.72865740741</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C399" t="s">
@@ -8336,7 +8337,7 @@
       <c r="A400" s="1">
         <v>44320.728680555556</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C400" t="s">
@@ -8347,7 +8348,7 @@
       <c r="A401" s="1">
         <v>44320.728807870371</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C401" t="s">
@@ -8358,7 +8359,7 @@
       <c r="A402" s="1">
         <v>44320.728900462964</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C402" t="s">
@@ -8369,7 +8370,7 @@
       <c r="A403" s="1">
         <v>44320.728946759256</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C403" t="s">
@@ -8380,7 +8381,7 @@
       <c r="A404" s="1">
         <v>44320.728993055556</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C404" t="s">
@@ -8391,7 +8392,7 @@
       <c r="A405" s="1">
         <v>44320.729004629633</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C405" t="s">
@@ -8402,7 +8403,7 @@
       <c r="A406" s="1">
         <v>44320.729004629633</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C406" t="s">
@@ -8413,7 +8414,7 @@
       <c r="A407" s="1">
         <v>44320.729016203702</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C407" t="s">
@@ -8424,7 +8425,7 @@
       <c r="A408" s="1">
         <v>44320.729027777779</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C408" t="s">
@@ -8435,7 +8436,7 @@
       <c r="A409" s="1">
         <v>44320.729074074072</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C409" t="s">
@@ -8446,7 +8447,7 @@
       <c r="A410" s="1">
         <v>44320.729108796295</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C410" t="s">
@@ -8457,7 +8458,7 @@
       <c r="A411" s="1">
         <v>44320.729178240741</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C411" t="s">
@@ -8468,7 +8469,7 @@
       <c r="A412" s="1">
         <v>44320.729328703703</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C412" t="s">
@@ -8479,7 +8480,7 @@
       <c r="A413" s="1">
         <v>44320.729386574072</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C413" t="s">
@@ -8490,7 +8491,7 @@
       <c r="A414" s="1">
         <v>44320.729398148149</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C414" t="s">
@@ -8501,7 +8502,7 @@
       <c r="A415" s="1">
         <v>44320.729490740741</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C415" t="s">
@@ -8512,7 +8513,7 @@
       <c r="A416" s="1">
         <v>44320.729594907411</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C416" t="s">
@@ -8523,7 +8524,7 @@
       <c r="A417" s="1">
         <v>44320.729594907411</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C417" t="s">
@@ -8534,7 +8535,7 @@
       <c r="A418" s="1">
         <v>44320.72960648148</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C418" t="s">
@@ -8545,7 +8546,7 @@
       <c r="A419" s="1">
         <v>44320.729629629626</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C419" t="s">
@@ -8556,7 +8557,7 @@
       <c r="A420" s="1">
         <v>44320.729629629626</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C420" t="s">
@@ -8567,7 +8568,7 @@
       <c r="A421" s="1">
         <v>44320.729675925926</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C421" t="s">
@@ -8578,7 +8579,7 @@
       <c r="A422" s="1">
         <v>44320.729768518519</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C422" t="s">
@@ -8589,7 +8590,7 @@
       <c r="A423" s="1">
         <v>44320.729780092595</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C423" t="s">
@@ -8600,7 +8601,7 @@
       <c r="A424" s="1">
         <v>44320.729826388888</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C424" t="s">
@@ -8611,7 +8612,7 @@
       <c r="A425" s="1">
         <v>44320.729849537034</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C425" t="s">
@@ -8622,7 +8623,7 @@
       <c r="A426" s="1">
         <v>44320.729988425926</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C426" t="s">
@@ -8633,7 +8634,7 @@
       <c r="A427" s="1">
         <v>44320.730034722219</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C427" t="s">
@@ -8644,7 +8645,7 @@
       <c r="A428" s="1">
         <v>44320.730162037034</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C428" t="s">
@@ -8655,7 +8656,7 @@
       <c r="A429" s="1">
         <v>44320.730173611111</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C429" t="s">
@@ -8666,7 +8667,7 @@
       <c r="A430" s="1">
         <v>44320.730196759258</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C430" t="s">
@@ -8677,7 +8678,7 @@
       <c r="A431" s="1">
         <v>44320.730208333334</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C431" t="s">
@@ -8688,7 +8689,7 @@
       <c r="A432" s="1">
         <v>44320.73027777778</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C432" t="s">
@@ -8699,7 +8700,7 @@
       <c r="A433" s="1">
         <v>44320.730347222219</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C433" t="s">
@@ -8710,7 +8711,7 @@
       <c r="A434" s="1">
         <v>44320.730393518519</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C434" t="s">
@@ -8721,7 +8722,7 @@
       <c r="A435" s="1">
         <v>44320.730520833335</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C435" t="s">
@@ -8732,7 +8733,7 @@
       <c r="A436" s="1">
         <v>44320.730567129627</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C436" t="s">
@@ -8743,7 +8744,7 @@
       <c r="A437" s="1">
         <v>44320.73060185185</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C437" t="s">
@@ -8754,7 +8755,7 @@
       <c r="A438" s="1">
         <v>44320.730613425927</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C438" t="s">
@@ -8765,7 +8766,7 @@
       <c r="A439" s="1">
         <v>44320.730671296296</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C439" t="s">
@@ -8776,7 +8777,7 @@
       <c r="A440" s="1">
         <v>44320.730682870373</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C440" t="s">
@@ -8787,7 +8788,7 @@
       <c r="A441" s="1">
         <v>44320.730694444443</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C441" t="s">
@@ -8798,7 +8799,7 @@
       <c r="A442" s="1">
         <v>44320.730729166666</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C442" t="s">
@@ -8809,7 +8810,7 @@
       <c r="A443" s="1">
         <v>44320.730740740742</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C443" t="s">
@@ -8820,7 +8821,7 @@
       <c r="A444" s="1">
         <v>44320.730752314812</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C444" t="s">
@@ -8831,7 +8832,7 @@
       <c r="A445" s="1">
         <v>44320.730787037035</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C445" t="s">
@@ -8842,7 +8843,7 @@
       <c r="A446" s="1">
         <v>44320.730833333335</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C446" t="s">
@@ -8853,7 +8854,7 @@
       <c r="A447" s="1">
         <v>44320.730868055558</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C447" t="s">
@@ -8864,7 +8865,7 @@
       <c r="A448" s="1">
         <v>44320.730879629627</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C448" t="s">
@@ -8875,7 +8876,7 @@
       <c r="A449" s="1">
         <v>44320.730891203704</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C449" t="s">
@@ -8886,7 +8887,7 @@
       <c r="A450" s="1">
         <v>44320.730914351851</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C450" t="s">
@@ -8897,7 +8898,7 @@
       <c r="A451" s="1">
         <v>44320.730925925927</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C451" t="s">
@@ -8908,7 +8909,7 @@
       <c r="A452" s="1">
         <v>44320.730937499997</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C452" t="s">
@@ -8919,7 +8920,7 @@
       <c r="A453" s="1">
         <v>44320.731006944443</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C453" t="s">
@@ -8930,7 +8931,7 @@
       <c r="A454" s="1">
         <v>44320.731030092589</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C454" t="s">
@@ -8941,7 +8942,7 @@
       <c r="A455" s="1">
         <v>44320.731030092589</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C455" t="s">
@@ -8952,7 +8953,7 @@
       <c r="A456" s="1">
         <v>44320.731076388889</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C456" t="s">
@@ -8963,7 +8964,7 @@
       <c r="A457" s="1">
         <v>44320.731122685182</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C457" t="s">
@@ -8974,7 +8975,7 @@
       <c r="A458" s="1">
         <v>44320.731157407405</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C458" t="s">
@@ -8985,7 +8986,7 @@
       <c r="A459" s="1">
         <v>44320.731157407405</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C459" t="s">
@@ -8996,7 +8997,7 @@
       <c r="A460" s="1">
         <v>44320.731192129628</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C460" t="s">
@@ -9007,7 +9008,7 @@
       <c r="A461" s="1">
         <v>44320.731203703705</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C461" t="s">
@@ -9018,7 +9019,7 @@
       <c r="A462" s="1">
         <v>44320.731307870374</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="2" t="s">
         <v>508</v>
       </c>
       <c r="C462" t="s">
@@ -9029,7 +9030,7 @@
       <c r="A463" s="1">
         <v>44320.731319444443</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C463" t="s">
@@ -9040,7 +9041,7 @@
       <c r="A464" s="1">
         <v>44320.731319444443</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C464" t="s">
@@ -9051,7 +9052,7 @@
       <c r="A465" s="1">
         <v>44320.731354166666</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C465" t="s">
@@ -9062,7 +9063,7 @@
       <c r="A466" s="1">
         <v>44320.731388888889</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C466" t="s">
@@ -9073,7 +9074,7 @@
       <c r="A467" s="1">
         <v>44320.731446759259</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C467" t="s">
@@ -9084,7 +9085,7 @@
       <c r="A468" s="1">
         <v>44320.731493055559</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C468" t="s">
@@ -9095,7 +9096,7 @@
       <c r="A469" s="1">
         <v>44320.731493055559</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C469" t="s">
@@ -9106,7 +9107,7 @@
       <c r="A470" s="1">
         <v>44320.731539351851</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C470" t="s">
@@ -9117,7 +9118,7 @@
       <c r="A471" s="1">
         <v>44320.731562499997</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C471" t="s">
@@ -9128,7 +9129,7 @@
       <c r="A472" s="1">
         <v>44320.731608796297</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C472" t="s">
@@ -9139,7 +9140,7 @@
       <c r="A473" s="1">
         <v>44320.731631944444</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C473" t="s">
@@ -9150,7 +9151,7 @@
       <c r="A474" s="1">
         <v>44320.73164351852</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C474" t="s">
@@ -9161,7 +9162,7 @@
       <c r="A475" s="1">
         <v>44320.73165509259</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C475" t="s">
@@ -9172,7 +9173,7 @@
       <c r="A476" s="1">
         <v>44320.731712962966</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C476" t="s">
@@ -9183,7 +9184,7 @@
       <c r="A477" s="1">
         <v>44320.731759259259</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C477" t="s">
@@ -9194,7 +9195,7 @@
       <c r="A478" s="1">
         <v>44320.731782407405</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C478" t="s">
@@ -9205,7 +9206,7 @@
       <c r="A479" s="1">
         <v>44320.731782407405</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C479" t="s">
@@ -9216,7 +9217,7 @@
       <c r="A480" s="1">
         <v>44320.731782407405</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C480" t="s">
@@ -9227,7 +9228,7 @@
       <c r="A481" s="1">
         <v>44320.731817129628</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C481" t="s">
@@ -9238,7 +9239,7 @@
       <c r="A482" s="1">
         <v>44320.731828703705</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C482" t="s">
@@ -9249,7 +9250,7 @@
       <c r="A483" s="1">
         <v>44320.732025462959</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C483" t="s">
@@ -9260,7 +9261,7 @@
       <c r="A484" s="1">
         <v>44320.732025462959</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C484" t="s">
@@ -9271,7 +9272,7 @@
       <c r="A485" s="1">
         <v>44320.732071759259</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="2" t="s">
         <v>532</v>
       </c>
       <c r="C485" t="s">
@@ -9282,7 +9283,7 @@
       <c r="A486" s="1">
         <v>44320.732083333336</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C486" t="s">
@@ -9293,7 +9294,7 @@
       <c r="A487" s="1">
         <v>44320.732141203705</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C487" t="s">
@@ -9304,7 +9305,7 @@
       <c r="A488" s="1">
         <v>44320.732152777775</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C488" t="s">
@@ -9315,7 +9316,7 @@
       <c r="A489" s="1">
         <v>44320.732175925928</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C489" t="s">
@@ -9326,7 +9327,7 @@
       <c r="A490" s="1">
         <v>44320.732175925928</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C490" t="s">
@@ -9337,7 +9338,7 @@
       <c r="A491" s="1">
         <v>44320.732187499998</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C491" t="s">
@@ -9348,7 +9349,7 @@
       <c r="A492" s="1">
         <v>44320.732199074075</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="2" t="s">
         <v>532</v>
       </c>
       <c r="C492" t="s">
@@ -9359,7 +9360,7 @@
       <c r="A493" s="1">
         <v>44320.732210648152</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C493" t="s">
@@ -9370,7 +9371,7 @@
       <c r="A494" s="1">
         <v>44320.732256944444</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C494" t="s">
@@ -9381,7 +9382,7 @@
       <c r="A495" s="1">
         <v>44320.732268518521</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C495" t="s">
@@ -9392,7 +9393,7 @@
       <c r="A496" s="1">
         <v>44320.73228009259</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C496" t="s">
@@ -9403,7 +9404,7 @@
       <c r="A497" s="1">
         <v>44320.732314814813</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C497" t="s">
@@ -9414,7 +9415,7 @@
       <c r="A498" s="1">
         <v>44320.732314814813</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C498" t="s">
@@ -9425,7 +9426,7 @@
       <c r="A499" s="1">
         <v>44320.732349537036</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C499" t="s">
@@ -9436,7 +9437,7 @@
       <c r="A500" s="1">
         <v>44320.732361111113</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C500" t="s">
@@ -9447,7 +9448,7 @@
       <c r="A501" s="1">
         <v>44320.732361111113</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C501" t="s">
@@ -9458,7 +9459,7 @@
       <c r="A502" s="1">
         <v>44320.732372685183</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C502" t="s">
@@ -9469,7 +9470,7 @@
       <c r="A503" s="1">
         <v>44320.732407407406</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C503" t="s">
@@ -9480,7 +9481,7 @@
       <c r="A504" s="1">
         <v>44320.732418981483</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C504" t="s">
@@ -9491,7 +9492,7 @@
       <c r="A505" s="1">
         <v>44320.732453703706</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C505" t="s">
@@ -9502,7 +9503,7 @@
       <c r="A506" s="1">
         <v>44320.732453703706</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="2" t="s">
         <v>553</v>
       </c>
       <c r="C506" t="s">
@@ -9513,7 +9514,7 @@
       <c r="A507" s="1">
         <v>44320.732465277775</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C507" t="s">
@@ -9524,7 +9525,7 @@
       <c r="A508" s="1">
         <v>44320.732476851852</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C508" t="s">
@@ -9535,7 +9536,7 @@
       <c r="A509" s="1">
         <v>44320.732488425929</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C509" t="s">
@@ -9546,7 +9547,7 @@
       <c r="A510" s="1">
         <v>44320.732511574075</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C510" t="s">
@@ -9557,7 +9558,7 @@
       <c r="A511" s="1">
         <v>44320.732523148145</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C511" t="s">
@@ -9568,7 +9569,7 @@
       <c r="A512" s="1">
         <v>44320.732523148145</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C512" t="s">
@@ -9579,7 +9580,7 @@
       <c r="A513" s="1">
         <v>44320.732569444444</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C513" t="s">
@@ -9590,7 +9591,7 @@
       <c r="A514" s="1">
         <v>44320.732592592591</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C514" t="s">
@@ -9601,7 +9602,7 @@
       <c r="A515" s="1">
         <v>44320.732592592591</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="2" t="s">
         <v>532</v>
       </c>
       <c r="C515" t="s">
@@ -9612,7 +9613,7 @@
       <c r="A516" s="1">
         <v>44320.732615740744</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C516" t="s">
@@ -9623,7 +9624,7 @@
       <c r="A517" s="1">
         <v>44320.732615740744</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C517" t="s">
@@ -9634,7 +9635,7 @@
       <c r="A518" s="1">
         <v>44320.732615740744</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C518" t="s">
@@ -9645,7 +9646,7 @@
       <c r="A519" s="1">
         <v>44320.732673611114</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C519" t="s">
@@ -9656,7 +9657,7 @@
       <c r="A520" s="1">
         <v>44320.732673611114</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C520" t="s">
@@ -9667,7 +9668,7 @@
       <c r="A521" s="1">
         <v>44320.732685185183</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C521" t="s">
@@ -9678,7 +9679,7 @@
       <c r="A522" s="1">
         <v>44320.73269675926</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C522" t="s">
@@ -9689,7 +9690,7 @@
       <c r="A523" s="1">
         <v>44320.732754629629</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C523" t="s">
@@ -9700,7 +9701,7 @@
       <c r="A524" s="1">
         <v>44320.732777777775</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C524" t="s">
@@ -9711,7 +9712,7 @@
       <c r="A525" s="1">
         <v>44320.732835648145</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C525" t="s">
@@ -9722,7 +9723,7 @@
       <c r="A526" s="1">
         <v>44320.732858796298</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C526" t="s">
@@ -9733,7 +9734,7 @@
       <c r="A527" s="1">
         <v>44320.732858796298</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C527" t="s">
@@ -9744,7 +9745,7 @@
       <c r="A528" s="1">
         <v>44320.732916666668</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C528" t="s">
@@ -9755,7 +9756,7 @@
       <c r="A529" s="1">
         <v>44320.732939814814</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C529" t="s">
@@ -9766,7 +9767,7 @@
       <c r="A530" s="1">
         <v>44320.732974537037</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C530" t="s">
@@ -9777,7 +9778,7 @@
       <c r="A531" s="1">
         <v>44320.73300925926</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C531" t="s">
@@ -9788,7 +9789,7 @@
       <c r="A532" s="1">
         <v>44320.733043981483</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C532" t="s">
@@ -9799,7 +9800,7 @@
       <c r="A533" s="1">
         <v>44320.733067129629</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C533" t="s">
@@ -9810,7 +9811,7 @@
       <c r="A534" s="1">
         <v>44320.733067129629</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C534" t="s">
@@ -9821,7 +9822,7 @@
       <c r="A535" s="1">
         <v>44320.733113425929</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C535" t="s">
@@ -9832,7 +9833,7 @@
       <c r="A536" s="1">
         <v>44320.733171296299</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C536" t="s">
@@ -9843,7 +9844,7 @@
       <c r="A537" s="1">
         <v>44320.733182870368</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C537" t="s">
@@ -9854,7 +9855,7 @@
       <c r="A538" s="1">
         <v>44320.733194444445</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C538" t="s">
@@ -9865,7 +9866,7 @@
       <c r="A539" s="1">
         <v>44320.733194444445</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C539" t="s">
@@ -9876,7 +9877,7 @@
       <c r="A540" s="1">
         <v>44320.733217592591</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C540" t="s">
@@ -9887,7 +9888,7 @@
       <c r="A541" s="1">
         <v>44320.733287037037</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C541" t="s">
@@ -9898,7 +9899,7 @@
       <c r="A542" s="1">
         <v>44320.733391203707</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C542" t="s">
@@ -9909,7 +9910,7 @@
       <c r="A543" s="1">
         <v>44320.733402777776</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C543" t="s">
@@ -9920,7 +9921,7 @@
       <c r="A544" s="1">
         <v>44320.733472222222</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C544" t="s">
@@ -9931,7 +9932,7 @@
       <c r="A545" s="1">
         <v>44320.733518518522</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C545" t="s">
@@ -9942,7 +9943,7 @@
       <c r="A546" s="1">
         <v>44320.733553240738</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B546" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C546" t="s">
@@ -9953,7 +9954,7 @@
       <c r="A547" s="1">
         <v>44320.733564814815</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C547" t="s">
@@ -9964,7 +9965,7 @@
       <c r="A548" s="1">
         <v>44320.733576388891</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B548" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C548" t="s">
@@ -9975,7 +9976,7 @@
       <c r="A549" s="1">
         <v>44320.73364583333</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C549" t="s">
@@ -9986,7 +9987,7 @@
       <c r="A550" s="1">
         <v>44320.733668981484</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B550" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C550" t="s">
@@ -9997,7 +9998,7 @@
       <c r="A551" s="1">
         <v>44320.733668981484</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C551" t="s">
@@ -10008,7 +10009,7 @@
       <c r="A552" s="1">
         <v>44320.733715277776</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B552" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C552" t="s">
@@ -10019,7 +10020,7 @@
       <c r="A553" s="1">
         <v>44320.733715277776</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C553" t="s">
@@ -10030,7 +10031,7 @@
       <c r="A554" s="1">
         <v>44320.733749999999</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C554" t="s">
@@ -10041,7 +10042,7 @@
       <c r="A555" s="1">
         <v>44320.733761574076</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C555" t="s">
@@ -10052,7 +10053,7 @@
       <c r="A556" s="1">
         <v>44320.733819444446</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C556" t="s">
@@ -10063,7 +10064,7 @@
       <c r="A557" s="1">
         <v>44320.733900462961</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C557" t="s">
@@ -10074,7 +10075,7 @@
       <c r="A558" s="1">
         <v>44320.733946759261</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C558" t="s">
@@ -10085,7 +10086,7 @@
       <c r="A559" s="1">
         <v>44320.733981481484</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C559" t="s">
@@ -10096,7 +10097,7 @@
       <c r="A560" s="1">
         <v>44320.734039351853</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C560" t="s">
@@ -10107,7 +10108,7 @@
       <c r="A561" s="1">
         <v>44320.734097222223</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B561" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C561" t="s">
@@ -10118,7 +10119,7 @@
       <c r="A562" s="1">
         <v>44320.734097222223</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C562" t="s">
@@ -10129,7 +10130,7 @@
       <c r="A563" s="1">
         <v>44320.7341087963</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B563" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C563" t="s">
@@ -10140,7 +10141,7 @@
       <c r="A564" s="1">
         <v>44320.734178240738</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B564" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C564" t="s">
@@ -10151,7 +10152,7 @@
       <c r="A565" s="1">
         <v>44320.734189814815</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B565" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C565" t="s">
@@ -10162,7 +10163,7 @@
       <c r="A566" s="1">
         <v>44320.734224537038</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B566" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C566" t="s">
@@ -10173,7 +10174,7 @@
       <c r="A567" s="1">
         <v>44320.734270833331</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B567" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C567" t="s">
@@ -10184,7 +10185,7 @@
       <c r="A568" s="1">
         <v>44320.734282407408</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C568" t="s">
@@ -10195,7 +10196,7 @@
       <c r="A569" s="1">
         <v>44320.734351851854</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B569" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C569" t="s">
@@ -10206,7 +10207,7 @@
       <c r="A570" s="1">
         <v>44320.734351851854</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B570" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C570" t="s">
@@ -10217,7 +10218,7 @@
       <c r="A571" s="1">
         <v>44320.734386574077</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B571" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C571" t="s">
@@ -10228,7 +10229,7 @@
       <c r="A572" s="1">
         <v>44320.734386574077</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B572" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C572" t="s">
@@ -10239,7 +10240,7 @@
       <c r="A573" s="1">
         <v>44320.734398148146</v>
       </c>
-      <c r="B573" t="s">
+      <c r="B573" s="2" t="s">
         <v>618</v>
       </c>
       <c r="C573" t="s">
@@ -10250,7 +10251,7 @@
       <c r="A574" s="1">
         <v>44320.734409722223</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B574" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C574" t="s">
@@ -10261,7 +10262,7 @@
       <c r="A575" s="1">
         <v>44320.7344212963</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C575" t="s">
@@ -10272,7 +10273,7 @@
       <c r="A576" s="1">
         <v>44320.734444444446</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B576" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C576" t="s">
@@ -10283,7 +10284,7 @@
       <c r="A577" s="1">
         <v>44320.734490740739</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C577" t="s">
@@ -10294,7 +10295,7 @@
       <c r="A578" s="1">
         <v>44320.734548611108</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B578" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C578" t="s">
@@ -10305,7 +10306,7 @@
       <c r="A579" s="1">
         <v>44320.734571759262</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B579" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C579" t="s">
@@ -10316,7 +10317,7 @@
       <c r="A580" s="1">
         <v>44320.734722222223</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B580" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C580" t="s">
@@ -10327,7 +10328,7 @@
       <c r="A581" s="1">
         <v>44320.734780092593</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B581" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C581" t="s">
@@ -10338,7 +10339,7 @@
       <c r="A582" s="1">
         <v>44320.734814814816</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C582" t="s">
@@ -10349,7 +10350,7 @@
       <c r="A583" s="1">
         <v>44320.734907407408</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C583" t="s">
@@ -10360,7 +10361,7 @@
       <c r="A584" s="1">
         <v>44320.734976851854</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B584" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C584" t="s">
@@ -10371,7 +10372,7 @@
       <c r="A585" s="1">
         <v>44320.735046296293</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B585" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C585" t="s">
@@ -10382,7 +10383,7 @@
       <c r="A586" s="1">
         <v>44320.73510416667</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B586" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C586" t="s">
@@ -10393,7 +10394,7 @@
       <c r="A587" s="1">
         <v>44320.735115740739</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C587" t="s">
@@ -10404,7 +10405,7 @@
       <c r="A588" s="1">
         <v>44320.735173611109</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B588" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C588" t="s">
@@ -10415,7 +10416,7 @@
       <c r="A589" s="1">
         <v>44320.735185185185</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B589" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C589" t="s">
@@ -10426,7 +10427,7 @@
       <c r="A590" s="1">
         <v>44320.735196759262</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B590" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C590" t="s">
@@ -10437,7 +10438,7 @@
       <c r="A591" s="1">
         <v>44320.735196759262</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B591" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C591" t="s">
@@ -10448,7 +10449,7 @@
       <c r="A592" s="1">
         <v>44320.735254629632</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B592" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C592" t="s">
@@ -10459,7 +10460,7 @@
       <c r="A593" s="1">
         <v>44320.735324074078</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B593" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C593" t="s">
@@ -10470,7 +10471,7 @@
       <c r="A594" s="1">
         <v>44320.735474537039</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C594" t="s">
@@ -10481,7 +10482,7 @@
       <c r="A595" s="1">
         <v>44320.735555555555</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B595" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C595" t="s">
@@ -10492,7 +10493,7 @@
       <c r="A596" s="1">
         <v>44320.735578703701</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B596" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C596" t="s">
@@ -10503,7 +10504,7 @@
       <c r="A597" s="1">
         <v>44320.735590277778</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B597" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C597" t="s">
@@ -10514,7 +10515,7 @@
       <c r="A598" s="1">
         <v>44320.735590277778</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B598" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C598" t="s">
@@ -10525,7 +10526,7 @@
       <c r="A599" s="1">
         <v>44320.735613425924</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C599" t="s">
@@ -10536,7 +10537,7 @@
       <c r="A600" s="1">
         <v>44320.735671296294</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C600" t="s">
@@ -10547,7 +10548,7 @@
       <c r="A601" s="1">
         <v>44320.735671296294</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B601" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C601" t="s">
@@ -10558,7 +10559,7 @@
       <c r="A602" s="1">
         <v>44320.735682870371</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B602" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C602" t="s">
@@ -10569,7 +10570,7 @@
       <c r="A603" s="1">
         <v>44320.735706018517</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B603" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C603" t="s">
@@ -10580,7 +10581,7 @@
       <c r="A604" s="1">
         <v>44320.735763888886</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B604" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C604" t="s">
@@ -10591,7 +10592,7 @@
       <c r="A605" s="1">
         <v>44320.735775462963</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B605" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C605" t="s">
@@ -10602,7 +10603,7 @@
       <c r="A606" s="1">
         <v>44320.73578703704</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B606" s="2" t="s">
         <v>650</v>
       </c>
       <c r="C606" t="s">
@@ -10613,7 +10614,7 @@
       <c r="A607" s="1">
         <v>44320.73578703704</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C607" t="s">
@@ -10624,7 +10625,7 @@
       <c r="A608" s="1">
         <v>44320.735798611109</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C608" t="s">
@@ -10635,7 +10636,7 @@
       <c r="A609" s="1">
         <v>44320.735821759263</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B609" s="2" t="s">
         <v>553</v>
       </c>
       <c r="C609" t="s">
@@ -10646,7 +10647,7 @@
       <c r="A610" s="1">
         <v>44320.735844907409</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B610" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C610" t="s">
@@ -10657,7 +10658,7 @@
       <c r="A611" s="1">
         <v>44320.735856481479</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B611" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C611" t="s">
@@ -10668,7 +10669,7 @@
       <c r="A612" s="1">
         <v>44320.735891203702</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B612" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C612" t="s">
@@ -10679,7 +10680,7 @@
       <c r="A613" s="1">
         <v>44320.735937500001</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C613" t="s">
@@ -10690,7 +10691,7 @@
       <c r="A614" s="1">
         <v>44320.736006944448</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B614" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C614" t="s">
@@ -10701,7 +10702,7 @@
       <c r="A615" s="1">
         <v>44320.736006944448</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C615" t="s">
@@ -10712,7 +10713,7 @@
       <c r="A616" s="1">
         <v>44320.736006944448</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B616" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C616" t="s">
@@ -10723,7 +10724,7 @@
       <c r="A617" s="1">
         <v>44320.736030092594</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B617" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C617" t="s">
@@ -10734,7 +10735,7 @@
       <c r="A618" s="1">
         <v>44320.736076388886</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B618" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C618" t="s">
@@ -10745,7 +10746,7 @@
       <c r="A619" s="1">
         <v>44320.736145833333</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B619" s="2" t="s">
         <v>553</v>
       </c>
       <c r="C619" t="s">
@@ -10756,7 +10757,7 @@
       <c r="A620" s="1">
         <v>44320.736168981479</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B620" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C620" t="s">
@@ -10767,7 +10768,7 @@
       <c r="A621" s="1">
         <v>44320.736192129632</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C621" t="s">
@@ -10778,7 +10779,7 @@
       <c r="A622" s="1">
         <v>44320.736203703702</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C622" t="s">
@@ -10789,7 +10790,7 @@
       <c r="A623" s="1">
         <v>44320.736215277779</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C623" t="s">
@@ -10800,7 +10801,7 @@
       <c r="A624" s="1">
         <v>44320.736215277779</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B624" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C624" t="s">
@@ -10811,7 +10812,7 @@
       <c r="A625" s="1">
         <v>44320.736284722225</v>
       </c>
-      <c r="B625" t="s">
+      <c r="B625" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C625" t="s">
@@ -10822,7 +10823,7 @@
       <c r="A626" s="1">
         <v>44320.736284722225</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C626" t="s">
@@ -10833,7 +10834,7 @@
       <c r="A627" s="1">
         <v>44320.736284722225</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C627" t="s">
@@ -10844,7 +10845,7 @@
       <c r="A628" s="1">
         <v>44320.736296296294</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B628" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C628" t="s">
@@ -10855,7 +10856,7 @@
       <c r="A629" s="1">
         <v>44320.736319444448</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B629" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C629" t="s">
@@ -10866,7 +10867,7 @@
       <c r="A630" s="1">
         <v>44320.736446759256</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C630" t="s">
@@ -10877,7 +10878,7 @@
       <c r="A631" s="1">
         <v>44320.736493055556</v>
       </c>
-      <c r="B631" t="s">
+      <c r="B631" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C631" t="s">
@@ -10888,7 +10889,7 @@
       <c r="A632" s="1">
         <v>44320.736504629633</v>
       </c>
-      <c r="B632" t="s">
+      <c r="B632" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C632" t="s">
@@ -10899,7 +10900,7 @@
       <c r="A633" s="1">
         <v>44320.736643518518</v>
       </c>
-      <c r="B633" t="s">
+      <c r="B633" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C633" t="s">
@@ -10910,7 +10911,7 @@
       <c r="A634" s="1">
         <v>44320.736666666664</v>
       </c>
-      <c r="B634" t="s">
+      <c r="B634" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C634" t="s">
@@ -10921,7 +10922,7 @@
       <c r="A635" s="1">
         <v>44320.736759259256</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C635" t="s">
@@ -10932,7 +10933,7 @@
       <c r="A636" s="1">
         <v>44320.736875000002</v>
       </c>
-      <c r="B636" t="s">
+      <c r="B636" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C636" t="s">
@@ -10943,7 +10944,7 @@
       <c r="A637" s="1">
         <v>44320.736979166664</v>
       </c>
-      <c r="B637" t="s">
+      <c r="B637" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C637" t="s">
@@ -10954,7 +10955,7 @@
       <c r="A638" s="1">
         <v>44320.737175925926</v>
       </c>
-      <c r="B638" t="s">
+      <c r="B638" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C638" t="s">
@@ -10965,7 +10966,7 @@
       <c r="A639" s="1">
         <v>44320.737199074072</v>
       </c>
-      <c r="B639" t="s">
+      <c r="B639" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C639" t="s">
@@ -10976,7 +10977,7 @@
       <c r="A640" s="1">
         <v>44320.737233796295</v>
       </c>
-      <c r="B640" t="s">
+      <c r="B640" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C640" t="s">
@@ -10987,7 +10988,7 @@
       <c r="A641" s="1">
         <v>44320.737384259257</v>
       </c>
-      <c r="B641" t="s">
+      <c r="B641" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C641" t="s">
@@ -10998,7 +10999,7 @@
       <c r="A642" s="1">
         <v>44320.73741898148</v>
       </c>
-      <c r="B642" t="s">
+      <c r="B642" s="2" t="s">
         <v>687</v>
       </c>
       <c r="C642" t="s">
@@ -11009,7 +11010,7 @@
       <c r="A643" s="1">
         <v>44320.737581018519</v>
       </c>
-      <c r="B643" t="s">
+      <c r="B643" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C643" t="s">
@@ -11020,7 +11021,7 @@
       <c r="A644" s="1">
         <v>44320.737627314818</v>
       </c>
-      <c r="B644" t="s">
+      <c r="B644" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C644" t="s">
@@ -11031,7 +11032,7 @@
       <c r="A645" s="1">
         <v>44320.737638888888</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B645" s="2" t="s">
         <v>691</v>
       </c>
       <c r="C645" t="s">
@@ -11042,7 +11043,7 @@
       <c r="A646" s="1">
         <v>44320.737696759257</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B646" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C646" t="s">
@@ -11053,7 +11054,7 @@
       <c r="A647" s="1">
         <v>44320.737708333334</v>
       </c>
-      <c r="B647" t="s">
+      <c r="B647" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C647" t="s">
@@ -11064,7 +11065,7 @@
       <c r="A648" s="1">
         <v>44320.737708333334</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B648" s="2" t="s">
         <v>691</v>
       </c>
       <c r="C648" t="s">
@@ -11075,7 +11076,7 @@
       <c r="A649" s="1">
         <v>44320.737766203703</v>
       </c>
-      <c r="B649" t="s">
+      <c r="B649" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C649" t="s">
@@ -11086,7 +11087,7 @@
       <c r="A650" s="1">
         <v>44320.737766203703</v>
       </c>
-      <c r="B650" t="s">
+      <c r="B650" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C650" t="s">
@@ -11097,7 +11098,7 @@
       <c r="A651" s="1">
         <v>44320.73777777778</v>
       </c>
-      <c r="B651" t="s">
+      <c r="B651" s="2" t="s">
         <v>698</v>
       </c>
       <c r="C651" t="s">
@@ -11108,7 +11109,7 @@
       <c r="A652" s="1">
         <v>44320.737858796296</v>
       </c>
-      <c r="B652" t="s">
+      <c r="B652" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C652" t="s">
@@ -11119,7 +11120,7 @@
       <c r="A653" s="1">
         <v>44320.737928240742</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B653" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C653" t="s">
@@ -11130,7 +11131,7 @@
       <c r="A654" s="1">
         <v>44320.737939814811</v>
       </c>
-      <c r="B654" t="s">
+      <c r="B654" s="2" t="s">
         <v>691</v>
       </c>
       <c r="C654" t="s">
@@ -11141,7 +11142,7 @@
       <c r="A655" s="1">
         <v>44320.737939814811</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B655" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C655" t="s">
@@ -11152,7 +11153,7 @@
       <c r="A656" s="1">
         <v>44320.737962962965</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B656" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C656" t="s">
@@ -11163,7 +11164,7 @@
       <c r="A657" s="1">
         <v>44320.738009259258</v>
       </c>
-      <c r="B657" t="s">
+      <c r="B657" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C657" t="s">
@@ -11174,7 +11175,7 @@
       <c r="A658" s="1">
         <v>44320.738020833334</v>
       </c>
-      <c r="B658" t="s">
+      <c r="B658" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C658" t="s">
@@ -11185,7 +11186,7 @@
       <c r="A659" s="1">
         <v>44320.738067129627</v>
       </c>
-      <c r="B659" t="s">
+      <c r="B659" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C659" t="s">
@@ -11196,7 +11197,7 @@
       <c r="A660" s="1">
         <v>44320.738067129627</v>
       </c>
-      <c r="B660" t="s">
+      <c r="B660" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C660" t="s">
@@ -11207,7 +11208,7 @@
       <c r="A661" s="1">
         <v>44320.73809027778</v>
       </c>
-      <c r="B661" t="s">
+      <c r="B661" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C661" t="s">
@@ -11218,7 +11219,7 @@
       <c r="A662" s="1">
         <v>44320.738125000003</v>
       </c>
-      <c r="B662" t="s">
+      <c r="B662" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C662" t="s">
@@ -11229,7 +11230,7 @@
       <c r="A663" s="1">
         <v>44320.738159722219</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B663" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C663" t="s">
@@ -11240,7 +11241,7 @@
       <c r="A664" s="1">
         <v>44320.738252314812</v>
       </c>
-      <c r="B664" t="s">
+      <c r="B664" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C664" t="s">
@@ -11251,7 +11252,7 @@
       <c r="A665" s="1">
         <v>44320.738263888888</v>
       </c>
-      <c r="B665" t="s">
+      <c r="B665" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C665" t="s">
@@ -11262,7 +11263,7 @@
       <c r="A666" s="1">
         <v>44320.738263888888</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B666" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C666" t="s">
@@ -11273,7 +11274,7 @@
       <c r="A667" s="1">
         <v>44320.738298611112</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B667" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C667" t="s">
@@ -11284,7 +11285,7 @@
       <c r="A668" s="1">
         <v>44320.738437499997</v>
       </c>
-      <c r="B668" t="s">
+      <c r="B668" s="2" t="s">
         <v>715</v>
       </c>
       <c r="C668" t="s">
@@ -11295,7 +11296,7 @@
       <c r="A669" s="1">
         <v>44320.738437499997</v>
       </c>
-      <c r="B669" t="s">
+      <c r="B669" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C669" t="s">
@@ -11306,7 +11307,7 @@
       <c r="A670" s="1">
         <v>44320.738506944443</v>
       </c>
-      <c r="B670" t="s">
+      <c r="B670" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C670" t="s">
@@ -11317,7 +11318,7 @@
       <c r="A671" s="1">
         <v>44320.738506944443</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B671" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C671" t="s">
@@ -11328,7 +11329,7 @@
       <c r="A672" s="1">
         <v>44320.738611111112</v>
       </c>
-      <c r="B672" t="s">
+      <c r="B672" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C672" t="s">
@@ -11339,7 +11340,7 @@
       <c r="A673" s="1">
         <v>44320.738668981481</v>
       </c>
-      <c r="B673" t="s">
+      <c r="B673" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C673" t="s">
@@ -11350,7 +11351,7 @@
       <c r="A674" s="1">
         <v>44320.738680555558</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B674" s="2" t="s">
         <v>691</v>
       </c>
       <c r="C674" t="s">
@@ -11361,7 +11362,7 @@
       <c r="A675" s="1">
         <v>44320.738738425927</v>
       </c>
-      <c r="B675" t="s">
+      <c r="B675" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C675" t="s">
@@ -11372,7 +11373,7 @@
       <c r="A676" s="1">
         <v>44320.73877314815</v>
       </c>
-      <c r="B676" t="s">
+      <c r="B676" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C676" t="s">
@@ -11383,7 +11384,7 @@
       <c r="A677" s="1">
         <v>44320.738842592589</v>
       </c>
-      <c r="B677" t="s">
+      <c r="B677" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C677" t="s">
@@ -11394,7 +11395,7 @@
       <c r="A678" s="1">
         <v>44320.738865740743</v>
       </c>
-      <c r="B678" t="s">
+      <c r="B678" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C678" t="s">
@@ -11405,7 +11406,7 @@
       <c r="A679" s="1">
         <v>44320.738877314812</v>
       </c>
-      <c r="B679" t="s">
+      <c r="B679" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C679" t="s">
@@ -11416,7 +11417,7 @@
       <c r="A680" s="1">
         <v>44320.738900462966</v>
       </c>
-      <c r="B680" t="s">
+      <c r="B680" s="2" t="s">
         <v>715</v>
       </c>
       <c r="C680" t="s">
@@ -11427,7 +11428,7 @@
       <c r="A681" s="1">
         <v>44320.738969907405</v>
       </c>
-      <c r="B681" t="s">
+      <c r="B681" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C681" t="s">
@@ -11438,7 +11439,7 @@
       <c r="A682" s="1">
         <v>44320.738981481481</v>
       </c>
-      <c r="B682" t="s">
+      <c r="B682" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C682" t="s">
@@ -11449,7 +11450,7 @@
       <c r="A683" s="1">
         <v>44320.739004629628</v>
       </c>
-      <c r="B683" t="s">
+      <c r="B683" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C683" t="s">
@@ -11460,7 +11461,7 @@
       <c r="A684" s="1">
         <v>44320.739074074074</v>
       </c>
-      <c r="B684" t="s">
+      <c r="B684" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C684" t="s">
@@ -11471,7 +11472,7 @@
       <c r="A685" s="1">
         <v>44320.739236111112</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B685" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C685" t="s">
@@ -11482,7 +11483,7 @@
       <c r="A686" s="1">
         <v>44320.739259259259</v>
       </c>
-      <c r="B686" t="s">
+      <c r="B686" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C686" t="s">
@@ -11493,7 +11494,7 @@
       <c r="A687" s="1">
         <v>44320.739328703705</v>
       </c>
-      <c r="B687" t="s">
+      <c r="B687" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C687" t="s">
@@ -11504,7 +11505,7 @@
       <c r="A688" s="1">
         <v>44320.739374999997</v>
       </c>
-      <c r="B688" t="s">
+      <c r="B688" s="2" t="s">
         <v>736</v>
       </c>
       <c r="C688" t="s">
@@ -11515,7 +11516,7 @@
       <c r="A689" s="1">
         <v>44320.739398148151</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B689" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C689" t="s">
@@ -11526,7 +11527,7 @@
       <c r="A690" s="1">
         <v>44320.739421296297</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B690" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C690" t="s">
@@ -11537,7 +11538,7 @@
       <c r="A691" s="1">
         <v>44320.739432870374</v>
       </c>
-      <c r="B691" t="s">
+      <c r="B691" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C691" t="s">
@@ -11548,7 +11549,7 @@
       <c r="A692" s="1">
         <v>44320.739479166667</v>
       </c>
-      <c r="B692" t="s">
+      <c r="B692" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C692" t="s">
@@ -11559,7 +11560,7 @@
       <c r="A693" s="1">
         <v>44320.739502314813</v>
       </c>
-      <c r="B693" t="s">
+      <c r="B693" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C693" t="s">
@@ -11570,7 +11571,7 @@
       <c r="A694" s="1">
         <v>44320.739525462966</v>
       </c>
-      <c r="B694" t="s">
+      <c r="B694" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C694" t="s">
@@ -11581,7 +11582,7 @@
       <c r="A695" s="1">
         <v>44320.739664351851</v>
       </c>
-      <c r="B695" t="s">
+      <c r="B695" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C695" t="s">
@@ -11592,7 +11593,7 @@
       <c r="A696" s="1">
         <v>44320.739675925928</v>
       </c>
-      <c r="B696" t="s">
+      <c r="B696" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C696" t="s">
@@ -11603,7 +11604,7 @@
       <c r="A697" s="1">
         <v>44320.739687499998</v>
       </c>
-      <c r="B697" t="s">
+      <c r="B697" s="2" t="s">
         <v>715</v>
       </c>
       <c r="C697" t="s">
@@ -11614,7 +11615,7 @@
       <c r="A698" s="1">
         <v>44320.739733796298</v>
       </c>
-      <c r="B698" t="s">
+      <c r="B698" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C698" t="s">
@@ -11625,7 +11626,7 @@
       <c r="A699" s="1">
         <v>44320.73982638889</v>
       </c>
-      <c r="B699" t="s">
+      <c r="B699" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C699" t="s">
@@ -11636,7 +11637,7 @@
       <c r="A700" s="1">
         <v>44320.739953703705</v>
       </c>
-      <c r="B700" t="s">
+      <c r="B700" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C700" t="s">
@@ -11647,7 +11648,7 @@
       <c r="A701" s="1">
         <v>44320.739965277775</v>
       </c>
-      <c r="B701" t="s">
+      <c r="B701" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C701" t="s">
@@ -11658,7 +11659,7 @@
       <c r="A702" s="1">
         <v>44320.739965277775</v>
       </c>
-      <c r="B702" t="s">
+      <c r="B702" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C702" t="s">
@@ -11669,7 +11670,7 @@
       <c r="A703" s="1">
         <v>44320.740034722221</v>
       </c>
-      <c r="B703" t="s">
+      <c r="B703" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C703" t="s">
@@ -11680,7 +11681,7 @@
       <c r="A704" s="1">
         <v>44320.740115740744</v>
       </c>
-      <c r="B704" t="s">
+      <c r="B704" s="2" t="s">
         <v>736</v>
       </c>
       <c r="C704" t="s">
@@ -11691,7 +11692,7 @@
       <c r="A705" s="1">
         <v>44320.740185185183</v>
       </c>
-      <c r="B705" t="s">
+      <c r="B705" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C705" t="s">
@@ -11702,7 +11703,7 @@
       <c r="A706" s="1">
         <v>44320.740185185183</v>
       </c>
-      <c r="B706" t="s">
+      <c r="B706" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C706" t="s">
@@ -11713,7 +11714,7 @@
       <c r="A707" s="1">
         <v>44320.740208333336</v>
       </c>
-      <c r="B707" t="s">
+      <c r="B707" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C707" t="s">
@@ -11724,7 +11725,7 @@
       <c r="A708" s="1">
         <v>44320.740324074075</v>
       </c>
-      <c r="B708" t="s">
+      <c r="B708" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C708" t="s">
@@ -11735,7 +11736,7 @@
       <c r="A709" s="1">
         <v>44320.740370370368</v>
       </c>
-      <c r="B709" t="s">
+      <c r="B709" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C709" t="s">
@@ -11746,7 +11747,7 @@
       <c r="A710" s="1">
         <v>44320.740381944444</v>
       </c>
-      <c r="B710" t="s">
+      <c r="B710" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C710" t="s">
@@ -11757,7 +11758,7 @@
       <c r="A711" s="1">
         <v>44320.740439814814</v>
       </c>
-      <c r="B711" t="s">
+      <c r="B711" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C711" t="s">
@@ -11768,7 +11769,7 @@
       <c r="A712" s="1">
         <v>44320.740486111114</v>
       </c>
-      <c r="B712" t="s">
+      <c r="B712" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C712" t="s">
@@ -11779,7 +11780,7 @@
       <c r="A713" s="1">
         <v>44320.740486111114</v>
       </c>
-      <c r="B713" t="s">
+      <c r="B713" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C713" t="s">
@@ -11790,7 +11791,7 @@
       <c r="A714" s="1">
         <v>44320.740520833337</v>
       </c>
-      <c r="B714" t="s">
+      <c r="B714" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C714" t="s">
@@ -11801,7 +11802,7 @@
       <c r="A715" s="1">
         <v>44320.740624999999</v>
       </c>
-      <c r="B715" t="s">
+      <c r="B715" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C715" t="s">
@@ -11812,7 +11813,7 @@
       <c r="A716" s="1">
         <v>44320.740636574075</v>
       </c>
-      <c r="B716" t="s">
+      <c r="B716" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C716" t="s">
@@ -11823,7 +11824,7 @@
       <c r="A717" s="1">
         <v>44320.740706018521</v>
       </c>
-      <c r="B717" t="s">
+      <c r="B717" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C717" t="s">
@@ -11834,7 +11835,7 @@
       <c r="A718" s="1">
         <v>44320.740706018521</v>
       </c>
-      <c r="B718" t="s">
+      <c r="B718" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C718" t="s">
@@ -11845,7 +11846,7 @@
       <c r="A719" s="1">
         <v>44320.740740740737</v>
       </c>
-      <c r="B719" t="s">
+      <c r="B719" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C719" t="s">
@@ -11856,7 +11857,7 @@
       <c r="A720" s="1">
         <v>44320.740740740737</v>
       </c>
-      <c r="B720" t="s">
+      <c r="B720" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C720" t="s">
@@ -11867,7 +11868,7 @@
       <c r="A721" s="1">
         <v>44320.740752314814</v>
       </c>
-      <c r="B721" t="s">
+      <c r="B721" s="2" t="s">
         <v>383</v>
       </c>
       <c r="C721" t="s">
@@ -11878,7 +11879,7 @@
       <c r="A722" s="1">
         <v>44320.740810185183</v>
       </c>
-      <c r="B722" t="s">
+      <c r="B722" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C722" t="s">
@@ -11889,7 +11890,7 @@
       <c r="A723" s="1">
         <v>44320.74082175926</v>
       </c>
-      <c r="B723" t="s">
+      <c r="B723" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C723" t="s">
@@ -11900,7 +11901,7 @@
       <c r="A724" s="1">
         <v>44320.740891203706</v>
       </c>
-      <c r="B724" t="s">
+      <c r="B724" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C724" t="s">
@@ -11911,7 +11912,7 @@
       <c r="A725" s="1">
         <v>44320.740902777776</v>
       </c>
-      <c r="B725" t="s">
+      <c r="B725" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C725" t="s">
@@ -11922,7 +11923,7 @@
       <c r="A726" s="1">
         <v>44320.740914351853</v>
       </c>
-      <c r="B726" t="s">
+      <c r="B726" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C726" t="s">
@@ -11933,7 +11934,7 @@
       <c r="A727" s="1">
         <v>44320.740960648145</v>
       </c>
-      <c r="B727" t="s">
+      <c r="B727" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C727" t="s">
@@ -11944,7 +11945,7 @@
       <c r="A728" s="1">
         <v>44320.740972222222</v>
       </c>
-      <c r="B728" t="s">
+      <c r="B728" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C728" t="s">
@@ -11955,7 +11956,7 @@
       <c r="A729" s="1">
         <v>44320.741076388891</v>
       </c>
-      <c r="B729" t="s">
+      <c r="B729" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C729" t="s">
@@ -11966,7 +11967,7 @@
       <c r="A730" s="1">
         <v>44320.741087962961</v>
       </c>
-      <c r="B730" t="s">
+      <c r="B730" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C730" t="s">
@@ -11977,7 +11978,7 @@
       <c r="A731" s="1">
         <v>44320.741111111114</v>
       </c>
-      <c r="B731" t="s">
+      <c r="B731" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C731" t="s">
@@ -11988,7 +11989,7 @@
       <c r="A732" s="1">
         <v>44320.74114583333</v>
       </c>
-      <c r="B732" t="s">
+      <c r="B732" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C732" t="s">
@@ -11999,7 +12000,7 @@
       <c r="A733" s="1">
         <v>44320.74119212963</v>
       </c>
-      <c r="B733" t="s">
+      <c r="B733" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C733" t="s">
@@ -12010,7 +12011,7 @@
       <c r="A734" s="1">
         <v>44320.741215277776</v>
       </c>
-      <c r="B734" t="s">
+      <c r="B734" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C734" t="s">
@@ -12021,7 +12022,7 @@
       <c r="A735" s="1">
         <v>44320.741273148145</v>
       </c>
-      <c r="B735" t="s">
+      <c r="B735" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C735" t="s">
@@ -12032,7 +12033,7 @@
       <c r="A736" s="1">
         <v>44320.741307870368</v>
       </c>
-      <c r="B736" t="s">
+      <c r="B736" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C736" t="s">
@@ -12043,7 +12044,7 @@
       <c r="A737" s="1">
         <v>44320.741319444445</v>
       </c>
-      <c r="B737" t="s">
+      <c r="B737" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C737" t="s">
@@ -12054,7 +12055,7 @@
       <c r="A738" s="1">
         <v>44320.741319444445</v>
       </c>
-      <c r="B738" t="s">
+      <c r="B738" s="2" t="s">
         <v>383</v>
       </c>
       <c r="C738" t="s">
@@ -12065,7 +12066,7 @@
       <c r="A739" s="1">
         <v>44320.741331018522</v>
       </c>
-      <c r="B739" t="s">
+      <c r="B739" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C739" t="s">
@@ -12076,7 +12077,7 @@
       <c r="A740" s="1">
         <v>44320.741331018522</v>
       </c>
-      <c r="B740" t="s">
+      <c r="B740" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C740" t="s">
@@ -12087,7 +12088,7 @@
       <c r="A741" s="1">
         <v>44320.741377314815</v>
       </c>
-      <c r="B741" t="s">
+      <c r="B741" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C741" t="s">
@@ -12098,7 +12099,7 @@
       <c r="A742" s="1">
         <v>44320.741423611114</v>
       </c>
-      <c r="B742" t="s">
+      <c r="B742" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C742" t="s">
@@ -12109,7 +12110,7 @@
       <c r="A743" s="1">
         <v>44320.741435185184</v>
       </c>
-      <c r="B743" t="s">
+      <c r="B743" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C743" t="s">
@@ -12120,7 +12121,7 @@
       <c r="A744" s="1">
         <v>44320.741481481484</v>
       </c>
-      <c r="B744" t="s">
+      <c r="B744" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C744" t="s">
@@ -12131,7 +12132,7 @@
       <c r="A745" s="1">
         <v>44320.741608796299</v>
       </c>
-      <c r="B745" t="s">
+      <c r="B745" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C745" t="s">
@@ -12142,7 +12143,7 @@
       <c r="A746" s="1">
         <v>44320.741747685184</v>
       </c>
-      <c r="B746" t="s">
+      <c r="B746" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C746" t="s">
@@ -12153,7 +12154,7 @@
       <c r="A747" s="1">
         <v>44320.741759259261</v>
       </c>
-      <c r="B747" t="s">
+      <c r="B747" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C747" t="s">
@@ -12164,7 +12165,7 @@
       <c r="A748" s="1">
         <v>44320.741805555554</v>
       </c>
-      <c r="B748" t="s">
+      <c r="B748" s="2" t="s">
         <v>789</v>
       </c>
       <c r="C748" t="s">
@@ -12175,7 +12176,7 @@
       <c r="A749" s="1">
         <v>44320.741898148146</v>
       </c>
-      <c r="B749" t="s">
+      <c r="B749" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C749" t="s">
@@ -12186,7 +12187,7 @@
       <c r="A750" s="1">
         <v>44320.741944444446</v>
       </c>
-      <c r="B750" t="s">
+      <c r="B750" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C750" t="s">
@@ -12197,7 +12198,7 @@
       <c r="A751" s="1">
         <v>44320.741956018515</v>
       </c>
-      <c r="B751" t="s">
+      <c r="B751" s="2" t="s">
         <v>793</v>
       </c>
       <c r="C751" t="s">
@@ -12208,7 +12209,7 @@
       <c r="A752" s="1">
         <v>44320.742013888892</v>
       </c>
-      <c r="B752" t="s">
+      <c r="B752" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C752" t="s">
@@ -12219,7 +12220,7 @@
       <c r="A753" s="1">
         <v>44320.742025462961</v>
       </c>
-      <c r="B753" t="s">
+      <c r="B753" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C753" t="s">
@@ -12230,7 +12231,7 @@
       <c r="A754" s="1">
         <v>44320.742037037038</v>
       </c>
-      <c r="B754" t="s">
+      <c r="B754" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C754" t="s">
@@ -12241,7 +12242,7 @@
       <c r="A755" s="1">
         <v>44320.742048611108</v>
       </c>
-      <c r="B755" t="s">
+      <c r="B755" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C755" t="s">
@@ -12252,7 +12253,7 @@
       <c r="A756" s="1">
         <v>44320.742071759261</v>
       </c>
-      <c r="B756" t="s">
+      <c r="B756" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C756" t="s">
@@ -12263,7 +12264,7 @@
       <c r="A757" s="1">
         <v>44320.742071759261</v>
       </c>
-      <c r="B757" t="s">
+      <c r="B757" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C757" t="s">
@@ -12274,7 +12275,7 @@
       <c r="A758" s="1">
         <v>44320.742118055554</v>
       </c>
-      <c r="B758" t="s">
+      <c r="B758" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C758" t="s">
@@ -12285,7 +12286,7 @@
       <c r="A759" s="1">
         <v>44320.742129629631</v>
       </c>
-      <c r="B759" t="s">
+      <c r="B759" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C759" t="s">
@@ -12296,7 +12297,7 @@
       <c r="A760" s="1">
         <v>44320.7421412037</v>
       </c>
-      <c r="B760" t="s">
+      <c r="B760" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C760" t="s">
@@ -12307,7 +12308,7 @@
       <c r="A761" s="1">
         <v>44320.7421875</v>
       </c>
-      <c r="B761" t="s">
+      <c r="B761" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C761" t="s">
@@ -12318,7 +12319,7 @@
       <c r="A762" s="1">
         <v>44320.742199074077</v>
       </c>
-      <c r="B762" t="s">
+      <c r="B762" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C762" t="s">
@@ -12329,7 +12330,7 @@
       <c r="A763" s="1">
         <v>44320.742268518516</v>
       </c>
-      <c r="B763" t="s">
+      <c r="B763" s="2" t="s">
         <v>383</v>
       </c>
       <c r="C763" t="s">
@@ -12340,7 +12341,7 @@
       <c r="A764" s="1">
         <v>44320.742361111108</v>
       </c>
-      <c r="B764" t="s">
+      <c r="B764" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C764" t="s">
@@ -12351,7 +12352,7 @@
       <c r="A765" s="1">
         <v>44320.742592592593</v>
       </c>
-      <c r="B765" t="s">
+      <c r="B765" s="2" t="s">
         <v>805</v>
       </c>
       <c r="C765" t="s">
@@ -12362,7 +12363,7 @@
       <c r="A766" s="1">
         <v>44320.742615740739</v>
       </c>
-      <c r="B766" t="s">
+      <c r="B766" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C766" t="s">
@@ -12373,7 +12374,7 @@
       <c r="A767" s="1">
         <v>44320.742743055554</v>
       </c>
-      <c r="B767" t="s">
+      <c r="B767" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C767" t="s">
@@ -12384,7 +12385,7 @@
       <c r="A768" s="1">
         <v>44320.742754629631</v>
       </c>
-      <c r="B768" t="s">
+      <c r="B768" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C768" t="s">
@@ -12395,7 +12396,7 @@
       <c r="A769" s="1">
         <v>44320.742905092593</v>
       </c>
-      <c r="B769" t="s">
+      <c r="B769" s="2" t="s">
         <v>810</v>
       </c>
       <c r="C769" t="s">
@@ -12406,7 +12407,7 @@
       <c r="A770" s="1">
         <v>44320.742939814816</v>
       </c>
-      <c r="B770" t="s">
+      <c r="B770" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C770" t="s">
@@ -12417,7 +12418,7 @@
       <c r="A771" s="1">
         <v>44320.743020833332</v>
       </c>
-      <c r="B771" t="s">
+      <c r="B771" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C771" t="s">
@@ -12428,7 +12429,7 @@
       <c r="A772" s="1">
         <v>44320.743055555555</v>
       </c>
-      <c r="B772" t="s">
+      <c r="B772" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C772" t="s">
@@ -12439,7 +12440,7 @@
       <c r="A773" s="1">
         <v>44320.74318287037</v>
       </c>
-      <c r="B773" t="s">
+      <c r="B773" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C773" t="s">
@@ -12450,7 +12451,7 @@
       <c r="A774" s="1">
         <v>44320.743263888886</v>
       </c>
-      <c r="B774" t="s">
+      <c r="B774" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C774" t="s">
@@ -12461,7 +12462,7 @@
       <c r="A775" s="1">
         <v>44320.743437500001</v>
       </c>
-      <c r="B775" t="s">
+      <c r="B775" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C775" t="s">
@@ -12472,7 +12473,7 @@
       <c r="A776" s="1">
         <v>44320.743437500001</v>
       </c>
-      <c r="B776" t="s">
+      <c r="B776" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C776" t="s">
@@ -12483,7 +12484,7 @@
       <c r="A777" s="1">
         <v>44320.743541666663</v>
       </c>
-      <c r="B777" t="s">
+      <c r="B777" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C777" t="s">
@@ -12494,7 +12495,7 @@
       <c r="A778" s="1">
         <v>44320.743576388886</v>
       </c>
-      <c r="B778" t="s">
+      <c r="B778" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C778" t="s">
@@ -12505,7 +12506,7 @@
       <c r="A779" s="1">
         <v>44320.743622685186</v>
       </c>
-      <c r="B779" t="s">
+      <c r="B779" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C779" t="s">
@@ -12516,7 +12517,7 @@
       <c r="A780" s="1">
         <v>44320.743668981479</v>
       </c>
-      <c r="B780" t="s">
+      <c r="B780" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C780" t="s">
@@ -12527,7 +12528,7 @@
       <c r="A781" s="1">
         <v>44320.743784722225</v>
       </c>
-      <c r="B781" t="s">
+      <c r="B781" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C781" t="s">
@@ -12538,7 +12539,7 @@
       <c r="A782" s="1">
         <v>44320.743831018517</v>
       </c>
-      <c r="B782" t="s">
+      <c r="B782" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C782" t="s">
@@ -12549,7 +12550,7 @@
       <c r="A783" s="1">
         <v>44320.743854166663</v>
       </c>
-      <c r="B783" t="s">
+      <c r="B783" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C783" t="s">
@@ -12560,7 +12561,7 @@
       <c r="A784" s="1">
         <v>44320.743935185186</v>
       </c>
-      <c r="B784" t="s">
+      <c r="B784" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C784" t="s">
@@ -12571,7 +12572,7 @@
       <c r="A785" s="1">
         <v>44320.743981481479</v>
       </c>
-      <c r="B785" t="s">
+      <c r="B785" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C785" t="s">
@@ -12582,7 +12583,7 @@
       <c r="A786" s="1">
         <v>44320.744062500002</v>
       </c>
-      <c r="B786" t="s">
+      <c r="B786" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C786" t="s">
@@ -12593,7 +12594,7 @@
       <c r="A787" s="1">
         <v>44320.744085648148</v>
       </c>
-      <c r="B787" t="s">
+      <c r="B787" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C787" t="s">
@@ -12604,7 +12605,7 @@
       <c r="A788" s="1">
         <v>44320.744201388887</v>
       </c>
-      <c r="B788" t="s">
+      <c r="B788" s="2" t="s">
         <v>828</v>
       </c>
       <c r="C788" t="s">
@@ -12615,7 +12616,7 @@
       <c r="A789" s="1">
         <v>44320.744490740741</v>
       </c>
-      <c r="B789" t="s">
+      <c r="B789" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C789" t="s">
@@ -12626,7 +12627,7 @@
       <c r="A790" s="1">
         <v>44320.744560185187</v>
       </c>
-      <c r="B790" t="s">
+      <c r="B790" s="2" t="s">
         <v>831</v>
       </c>
       <c r="C790" t="s">
@@ -12637,7 +12638,7 @@
       <c r="A791" s="1">
         <v>44320.744571759256</v>
       </c>
-      <c r="B791" t="s">
+      <c r="B791" s="2" t="s">
         <v>833</v>
       </c>
       <c r="C791" t="s">
@@ -12648,7 +12649,7 @@
       <c r="A792" s="1">
         <v>44320.744791666664</v>
       </c>
-      <c r="B792" t="s">
+      <c r="B792" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C792" t="s">
@@ -12659,7 +12660,7 @@
       <c r="A793" s="1">
         <v>44320.744895833333</v>
       </c>
-      <c r="B793" t="s">
+      <c r="B793" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C793" t="s">
@@ -12670,7 +12671,7 @@
       <c r="A794" s="1">
         <v>44320.745000000003</v>
       </c>
-      <c r="B794" t="s">
+      <c r="B794" s="2" t="s">
         <v>837</v>
       </c>
       <c r="C794" t="s">
@@ -12681,7 +12682,7 @@
       <c r="A795" s="1">
         <v>44320.745011574072</v>
       </c>
-      <c r="B795" t="s">
+      <c r="B795" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C795" t="s">
@@ -12692,7 +12693,7 @@
       <c r="A796" s="1">
         <v>44320.745011574072</v>
       </c>
-      <c r="B796" t="s">
+      <c r="B796" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C796" t="s">
@@ -12703,7 +12704,7 @@
       <c r="A797" s="1">
         <v>44320.745081018518</v>
       </c>
-      <c r="B797" t="s">
+      <c r="B797" s="2" t="s">
         <v>841</v>
       </c>
       <c r="C797" t="s">
@@ -12714,7 +12715,7 @@
       <c r="A798" s="1">
         <v>44320.745219907411</v>
       </c>
-      <c r="B798" t="s">
+      <c r="B798" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C798" t="s">
@@ -12725,7 +12726,7 @@
       <c r="A799" s="1">
         <v>44320.745243055557</v>
       </c>
-      <c r="B799" t="s">
+      <c r="B799" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C799" t="s">
@@ -12736,7 +12737,7 @@
       <c r="A800" s="1">
         <v>44320.745243055557</v>
       </c>
-      <c r="B800" t="s">
+      <c r="B800" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C800" t="s">
@@ -12747,7 +12748,7 @@
       <c r="A801" s="1">
         <v>44320.745324074072</v>
       </c>
-      <c r="B801" t="s">
+      <c r="B801" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C801" t="s">
@@ -12758,7 +12759,7 @@
       <c r="A802" s="1">
         <v>44320.745567129627</v>
       </c>
-      <c r="B802" t="s">
+      <c r="B802" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C802" t="s">
@@ -12769,7 +12770,7 @@
       <c r="A803" s="1">
         <v>44320.745567129627</v>
       </c>
-      <c r="B803" t="s">
+      <c r="B803" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C803" t="s">
@@ -12780,7 +12781,7 @@
       <c r="A804" s="1">
         <v>44320.74560185185</v>
       </c>
-      <c r="B804" t="s">
+      <c r="B804" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C804" t="s">
@@ -12791,7 +12792,7 @@
       <c r="A805" s="1">
         <v>44320.745625000003</v>
       </c>
-      <c r="B805" t="s">
+      <c r="B805" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C805" t="s">
@@ -12802,7 +12803,7 @@
       <c r="A806" s="1">
         <v>44320.745682870373</v>
       </c>
-      <c r="B806" t="s">
+      <c r="B806" s="2" t="s">
         <v>850</v>
       </c>
       <c r="C806" t="s">
@@ -12813,7 +12814,7 @@
       <c r="A807" s="1">
         <v>44320.745763888888</v>
       </c>
-      <c r="B807" t="s">
+      <c r="B807" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C807" t="s">
@@ -12824,7 +12825,7 @@
       <c r="A808" s="1">
         <v>44320.745833333334</v>
       </c>
-      <c r="B808" t="s">
+      <c r="B808" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C808" t="s">
@@ -12835,7 +12836,7 @@
       <c r="A809" s="1">
         <v>44320.745891203704</v>
       </c>
-      <c r="B809" t="s">
+      <c r="B809" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C809" t="s">
@@ -12846,7 +12847,7 @@
       <c r="A810" s="1">
         <v>44320.745925925927</v>
       </c>
-      <c r="B810" t="s">
+      <c r="B810" s="2" t="s">
         <v>837</v>
       </c>
       <c r="C810" t="s">
@@ -12857,7 +12858,7 @@
       <c r="A811" s="1">
         <v>44320.746145833335</v>
       </c>
-      <c r="B811" t="s">
+      <c r="B811" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C811" t="s">
@@ -12868,7 +12869,7 @@
       <c r="A812" s="1">
         <v>44320.746145833335</v>
       </c>
-      <c r="B812" t="s">
+      <c r="B812" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C812" t="s">
@@ -12879,7 +12880,7 @@
       <c r="A813" s="1">
         <v>44320.746157407404</v>
       </c>
-      <c r="B813" t="s">
+      <c r="B813" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C813" t="s">
@@ -12890,7 +12891,7 @@
       <c r="A814" s="1">
         <v>44320.74622685185</v>
       </c>
-      <c r="B814" t="s">
+      <c r="B814" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C814" t="s">
@@ -12901,7 +12902,7 @@
       <c r="A815" s="1">
         <v>44320.74627314815</v>
       </c>
-      <c r="B815" t="s">
+      <c r="B815" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C815" t="s">
@@ -12912,7 +12913,7 @@
       <c r="A816" s="1">
         <v>44320.74628472222</v>
       </c>
-      <c r="B816" t="s">
+      <c r="B816" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C816" t="s">
@@ -12923,7 +12924,7 @@
       <c r="A817" s="1">
         <v>44320.746319444443</v>
       </c>
-      <c r="B817" t="s">
+      <c r="B817" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C817" t="s">
@@ -12934,7 +12935,7 @@
       <c r="A818" s="1">
         <v>44320.746331018519</v>
       </c>
-      <c r="B818" t="s">
+      <c r="B818" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C818" t="s">
@@ -12945,7 +12946,7 @@
       <c r="A819" s="1">
         <v>44320.746400462966</v>
       </c>
-      <c r="B819" t="s">
+      <c r="B819" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C819" t="s">
@@ -12956,7 +12957,7 @@
       <c r="A820" s="1">
         <v>44320.746504629627</v>
       </c>
-      <c r="B820" t="s">
+      <c r="B820" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C820" t="s">
@@ -12967,7 +12968,7 @@
       <c r="A821" s="1">
         <v>44320.746724537035</v>
       </c>
-      <c r="B821" t="s">
+      <c r="B821" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C821" t="s">
@@ -12978,7 +12979,7 @@
       <c r="A822" s="1">
         <v>44320.74690972222</v>
       </c>
-      <c r="B822" t="s">
+      <c r="B822" s="2" t="s">
         <v>850</v>
       </c>
       <c r="C822" t="s">
@@ -12989,7 +12990,7 @@
       <c r="A823" s="1">
         <v>44320.746967592589</v>
       </c>
-      <c r="B823" t="s">
+      <c r="B823" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C823" t="s">
@@ -13000,7 +13001,7 @@
       <c r="A824" s="1">
         <v>44320.747002314813</v>
       </c>
-      <c r="B824" t="s">
+      <c r="B824" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C824" t="s">
@@ -13011,7 +13012,7 @@
       <c r="A825" s="1">
         <v>44320.747106481482</v>
       </c>
-      <c r="B825" t="s">
+      <c r="B825" s="2" t="s">
         <v>867</v>
       </c>
       <c r="C825" t="s">
@@ -13022,7 +13023,7 @@
       <c r="A826" s="1">
         <v>44320.747106481482</v>
       </c>
-      <c r="B826" t="s">
+      <c r="B826" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C826" t="s">
@@ -13033,7 +13034,7 @@
       <c r="A827" s="1">
         <v>44320.747314814813</v>
       </c>
-      <c r="B827" t="s">
+      <c r="B827" s="2" t="s">
         <v>870</v>
       </c>
       <c r="C827" t="s">
@@ -13044,7 +13045,7 @@
       <c r="A828" s="1">
         <v>44320.74732638889</v>
       </c>
-      <c r="B828" t="s">
+      <c r="B828" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C828">
@@ -13055,7 +13056,7 @@
       <c r="A829" s="1">
         <v>44320.747499999998</v>
       </c>
-      <c r="B829" t="s">
+      <c r="B829" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C829" t="s">
@@ -13066,7 +13067,7 @@
       <c r="A830" s="1">
         <v>44320.747534722221</v>
       </c>
-      <c r="B830" t="s">
+      <c r="B830" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C830" t="s">
@@ -13077,7 +13078,7 @@
       <c r="A831" s="1">
         <v>44320.747627314813</v>
       </c>
-      <c r="B831" t="s">
+      <c r="B831" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C831" t="s">
@@ -13088,7 +13089,7 @@
       <c r="A832" s="1">
         <v>44320.747858796298</v>
       </c>
-      <c r="B832" t="s">
+      <c r="B832" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C832" t="s">
@@ -13099,7 +13100,7 @@
       <c r="A833" s="1">
         <v>44320.747916666667</v>
       </c>
-      <c r="B833" t="s">
+      <c r="B833" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C833" t="s">
@@ -13110,7 +13111,7 @@
       <c r="A834" s="1">
         <v>44320.747939814813</v>
       </c>
-      <c r="B834" t="s">
+      <c r="B834" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C834" t="s">
@@ -13121,7 +13122,7 @@
       <c r="A835" s="1">
         <v>44320.747974537036</v>
       </c>
-      <c r="B835" t="s">
+      <c r="B835" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C835" t="s">
@@ -13132,7 +13133,7 @@
       <c r="A836" s="1">
         <v>44320.747997685183</v>
       </c>
-      <c r="B836" t="s">
+      <c r="B836" s="2" t="s">
         <v>879</v>
       </c>
       <c r="C836" t="s">
@@ -13143,7 +13144,7 @@
       <c r="A837" s="1">
         <v>44320.748020833336</v>
       </c>
-      <c r="B837" t="s">
+      <c r="B837" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C837" t="s">
@@ -13154,7 +13155,7 @@
       <c r="A838" s="1">
         <v>44320.748043981483</v>
       </c>
-      <c r="B838" t="s">
+      <c r="B838" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C838" t="s">
@@ -13165,7 +13166,7 @@
       <c r="A839" s="1">
         <v>44320.748368055552</v>
       </c>
-      <c r="B839" t="s">
+      <c r="B839" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C839" t="s">
@@ -13176,7 +13177,7 @@
       <c r="A840" s="1">
         <v>44320.748680555553</v>
       </c>
-      <c r="B840" t="s">
+      <c r="B840" s="2" t="s">
         <v>837</v>
       </c>
       <c r="C840" t="s">
@@ -13187,7 +13188,7 @@
       <c r="A841" s="1">
         <v>44320.748865740738</v>
       </c>
-      <c r="B841" t="s">
+      <c r="B841" s="2" t="s">
         <v>885</v>
       </c>
       <c r="C841" t="s">
@@ -13198,7 +13199,7 @@
       <c r="A842" s="1">
         <v>44320.748923611114</v>
       </c>
-      <c r="B842" t="s">
+      <c r="B842" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C842" t="s">
@@ -13209,7 +13210,7 @@
       <c r="A843" s="1">
         <v>44320.749074074076</v>
       </c>
-      <c r="B843" t="s">
+      <c r="B843" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C843" t="s">
@@ -13220,7 +13221,7 @@
       <c r="A844" s="1">
         <v>44320.749097222222</v>
       </c>
-      <c r="B844" t="s">
+      <c r="B844" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C844" t="s">
@@ -13231,7 +13232,7 @@
       <c r="A845" s="1">
         <v>44320.749224537038</v>
       </c>
-      <c r="B845" t="s">
+      <c r="B845" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C845" t="s">
@@ -13242,7 +13243,7 @@
       <c r="A846" s="1">
         <v>44320.749247685184</v>
       </c>
-      <c r="B846" t="s">
+      <c r="B846" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C846" t="s">
@@ -13253,7 +13254,7 @@
       <c r="A847" s="1">
         <v>44320.749282407407</v>
       </c>
-      <c r="B847" t="s">
+      <c r="B847" s="2" t="s">
         <v>892</v>
       </c>
       <c r="C847" t="s">
@@ -13264,7 +13265,7 @@
       <c r="A848" s="1">
         <v>44320.749421296299</v>
       </c>
-      <c r="B848" t="s">
+      <c r="B848" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C848" t="s">
@@ -13275,7 +13276,7 @@
       <c r="A849" s="1">
         <v>44320.749525462961</v>
       </c>
-      <c r="B849" t="s">
+      <c r="B849" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C849" t="s">
@@ -13286,7 +13287,7 @@
       <c r="A850" s="1">
         <v>44320.7497337963</v>
       </c>
-      <c r="B850" t="s">
+      <c r="B850" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C850" t="s">
@@ -13297,7 +13298,7 @@
       <c r="A851" s="1">
         <v>44320.750486111108</v>
       </c>
-      <c r="B851" t="s">
+      <c r="B851" s="2" t="s">
         <v>896</v>
       </c>
       <c r="C851" t="s">
@@ -13308,7 +13309,7 @@
       <c r="A852" s="1">
         <v>44320.750706018516</v>
       </c>
-      <c r="B852" t="s">
+      <c r="B852" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C852" t="s">
@@ -13319,7 +13320,7 @@
       <c r="A853" s="1">
         <v>44320.751203703701</v>
       </c>
-      <c r="B853" t="s">
+      <c r="B853" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C853" t="s">
@@ -13330,7 +13331,7 @@
       <c r="A854" s="1">
         <v>44320.751284722224</v>
       </c>
-      <c r="B854" t="s">
+      <c r="B854" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C854" t="s">
@@ -13341,7 +13342,7 @@
       <c r="A855" s="1">
         <v>44320.751539351855</v>
       </c>
-      <c r="B855" t="s">
+      <c r="B855" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C855" t="s">
@@ -13352,7 +13353,7 @@
       <c r="A856" s="1">
         <v>44320.751886574071</v>
       </c>
-      <c r="B856" t="s">
+      <c r="B856" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C856" t="s">
@@ -13363,7 +13364,7 @@
       <c r="A857" s="1">
         <v>44320.751909722225</v>
       </c>
-      <c r="B857" t="s">
+      <c r="B857" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C857" t="s">
@@ -13374,7 +13375,7 @@
       <c r="A858" s="1">
         <v>44320.751956018517</v>
       </c>
-      <c r="B858" t="s">
+      <c r="B858" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C858" t="s">
@@ -13385,7 +13386,7 @@
       <c r="A859" s="1">
         <v>44320.752083333333</v>
       </c>
-      <c r="B859" t="s">
+      <c r="B859" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C859" t="s">
@@ -13396,7 +13397,7 @@
       <c r="A860" s="1">
         <v>44320.752349537041</v>
       </c>
-      <c r="B860" t="s">
+      <c r="B860" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C860" t="s">
@@ -13407,7 +13408,7 @@
       <c r="A861" s="1">
         <v>44320.752395833333</v>
       </c>
-      <c r="B861" t="s">
+      <c r="B861" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C861" t="s">
@@ -13418,7 +13419,7 @@
       <c r="A862" s="1">
         <v>44320.752465277779</v>
       </c>
-      <c r="B862" t="s">
+      <c r="B862" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C862" t="s">
@@ -13429,7 +13430,7 @@
       <c r="A863" s="1">
         <v>44320.752534722225</v>
       </c>
-      <c r="B863" t="s">
+      <c r="B863" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C863" t="s">
@@ -13440,7 +13441,7 @@
       <c r="A864" s="1">
         <v>44320.752893518518</v>
       </c>
-      <c r="B864" t="s">
+      <c r="B864" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C864" t="s">
@@ -13451,7 +13452,7 @@
       <c r="A865" s="1">
         <v>44320.752997685187</v>
       </c>
-      <c r="B865" t="s">
+      <c r="B865" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C865" t="s">
@@ -13462,7 +13463,7 @@
       <c r="A866" s="1">
         <v>44320.753009259257</v>
       </c>
-      <c r="B866" t="s">
+      <c r="B866" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C866" t="s">
@@ -13473,7 +13474,7 @@
       <c r="A867" s="1">
         <v>44320.753020833334</v>
       </c>
-      <c r="B867" t="s">
+      <c r="B867" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C867" t="s">
@@ -13484,7 +13485,7 @@
       <c r="A868" s="1">
         <v>44320.753182870372</v>
       </c>
-      <c r="B868" t="s">
+      <c r="B868" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C868" t="s">
@@ -13495,7 +13496,7 @@
       <c r="A869" s="1">
         <v>44320.753252314818</v>
       </c>
-      <c r="B869" t="s">
+      <c r="B869" s="2" t="s">
         <v>837</v>
       </c>
       <c r="C869" t="s">
@@ -13506,7 +13507,7 @@
       <c r="A870" s="1">
         <v>44320.753391203703</v>
       </c>
-      <c r="B870" t="s">
+      <c r="B870" s="2" t="s">
         <v>837</v>
       </c>
       <c r="C870" t="s">
@@ -13517,7 +13518,7 @@
       <c r="A871" s="1">
         <v>44320.753437500003</v>
       </c>
-      <c r="B871" t="s">
+      <c r="B871" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C871" t="s">
@@ -13528,7 +13529,7 @@
       <c r="A872" s="1">
         <v>44320.753495370373</v>
       </c>
-      <c r="B872" t="s">
+      <c r="B872" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C872" t="s">
@@ -13539,7 +13540,7 @@
       <c r="A873" s="1">
         <v>44320.753738425927</v>
       </c>
-      <c r="B873" t="s">
+      <c r="B873" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C873" t="s">
@@ -13550,7 +13551,7 @@
       <c r="A874" s="1">
         <v>44320.754050925927</v>
       </c>
-      <c r="B874" t="s">
+      <c r="B874" s="2" t="s">
         <v>810</v>
       </c>
       <c r="C874" t="s">
@@ -13561,7 +13562,7 @@
       <c r="A875" s="1">
         <v>44320.754189814812</v>
       </c>
-      <c r="B875" t="s">
+      <c r="B875" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C875" t="s">
@@ -13572,7 +13573,7 @@
       <c r="A876" s="1">
         <v>44320.75445601852</v>
       </c>
-      <c r="B876" t="s">
+      <c r="B876" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C876" t="s">
@@ -13583,7 +13584,7 @@
       <c r="A877" s="1">
         <v>44320.754502314812</v>
       </c>
-      <c r="B877" t="s">
+      <c r="B877" s="2" t="s">
         <v>867</v>
       </c>
       <c r="C877" t="s">
@@ -13594,7 +13595,7 @@
       <c r="A878" s="1">
         <v>44320.754513888889</v>
       </c>
-      <c r="B878" t="s">
+      <c r="B878" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C878" t="s">
@@ -13605,7 +13606,7 @@
       <c r="A879" s="1">
         <v>44320.754537037035</v>
       </c>
-      <c r="B879" t="s">
+      <c r="B879" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C879" t="s">
@@ -13616,7 +13617,7 @@
       <c r="A880" s="1">
         <v>44320.754571759258</v>
       </c>
-      <c r="B880" t="s">
+      <c r="B880" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C880" t="s">
@@ -13627,7 +13628,7 @@
       <c r="A881" s="1">
         <v>44320.754606481481</v>
       </c>
-      <c r="B881" t="s">
+      <c r="B881" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C881" t="s">
@@ -13638,7 +13639,7 @@
       <c r="A882" s="1">
         <v>44320.754803240743</v>
       </c>
-      <c r="B882" t="s">
+      <c r="B882" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C882" t="s">
@@ -13649,7 +13650,7 @@
       <c r="A883" s="1">
         <v>44320.754849537036</v>
       </c>
-      <c r="B883" t="s">
+      <c r="B883" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C883" t="s">
@@ -13660,7 +13661,7 @@
       <c r="A884" s="1">
         <v>44320.754872685182</v>
       </c>
-      <c r="B884" t="s">
+      <c r="B884" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C884" t="s">
@@ -13671,7 +13672,7 @@
       <c r="A885" s="1">
         <v>44320.754895833335</v>
       </c>
-      <c r="B885" t="s">
+      <c r="B885" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C885" t="s">
@@ -13682,7 +13683,7 @@
       <c r="A886" s="1">
         <v>44320.754895833335</v>
       </c>
-      <c r="B886" t="s">
+      <c r="B886" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C886" t="s">
@@ -13693,7 +13694,7 @@
       <c r="A887" s="1">
         <v>44320.754907407405</v>
       </c>
-      <c r="B887" t="s">
+      <c r="B887" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C887" t="s">
@@ -13704,7 +13705,7 @@
       <c r="A888" s="1">
         <v>44320.755046296297</v>
       </c>
-      <c r="B888" t="s">
+      <c r="B888" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C888" t="s">
@@ -13715,7 +13716,7 @@
       <c r="A889" s="1">
         <v>44320.75508101852</v>
       </c>
-      <c r="B889" t="s">
+      <c r="B889" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C889" t="s">
@@ -13726,7 +13727,7 @@
       <c r="A890" s="1">
         <v>44320.75509259259</v>
       </c>
-      <c r="B890" t="s">
+      <c r="B890" s="2" t="s">
         <v>837</v>
       </c>
       <c r="C890" t="s">
@@ -13737,7 +13738,7 @@
       <c r="A891" s="1">
         <v>44320.755104166667</v>
       </c>
-      <c r="B891" t="s">
+      <c r="B891" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C891" t="s">
@@ -13748,7 +13749,7 @@
       <c r="A892" s="1">
         <v>44320.75513888889</v>
       </c>
-      <c r="B892" t="s">
+      <c r="B892" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C892" t="s">
@@ -13759,7 +13760,7 @@
       <c r="A893" s="1">
         <v>44320.755173611113</v>
       </c>
-      <c r="B893" t="s">
+      <c r="B893" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C893" t="s">
@@ -13770,7 +13771,7 @@
       <c r="A894" s="1">
         <v>44320.755185185182</v>
       </c>
-      <c r="B894" t="s">
+      <c r="B894" s="2" t="s">
         <v>867</v>
       </c>
       <c r="C894" t="s">
@@ -13781,7 +13782,7 @@
       <c r="A895" s="1">
         <v>44320.755231481482</v>
       </c>
-      <c r="B895" t="s">
+      <c r="B895" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C895" t="s">
@@ -13792,7 +13793,7 @@
       <c r="A896" s="1">
         <v>44320.755243055559</v>
       </c>
-      <c r="B896" t="s">
+      <c r="B896" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C896" t="s">
@@ -13803,7 +13804,7 @@
       <c r="A897" s="1">
         <v>44320.755358796298</v>
       </c>
-      <c r="B897" t="s">
+      <c r="B897" s="2" t="s">
         <v>940</v>
       </c>
       <c r="C897" t="s">
@@ -13814,7 +13815,7 @@
       <c r="A898" s="1">
         <v>44320.755381944444</v>
       </c>
-      <c r="B898" t="s">
+      <c r="B898" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C898" t="s">
@@ -13825,7 +13826,7 @@
       <c r="A899" s="1">
         <v>44320.755428240744</v>
       </c>
-      <c r="B899" t="s">
+      <c r="B899" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C899" t="s">
@@ -13836,7 +13837,7 @@
       <c r="A900" s="1">
         <v>44320.755497685182</v>
       </c>
-      <c r="B900" t="s">
+      <c r="B900" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C900" t="s">
@@ -13847,7 +13848,7 @@
       <c r="A901" s="1">
         <v>44320.755497685182</v>
       </c>
-      <c r="B901" t="s">
+      <c r="B901" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C901" t="s">
@@ -13858,7 +13859,7 @@
       <c r="A902" s="1">
         <v>44320.755555555559</v>
       </c>
-      <c r="B902" t="s">
+      <c r="B902" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C902" t="s">
@@ -13869,7 +13870,7 @@
       <c r="A903" s="1">
         <v>44320.755567129629</v>
       </c>
-      <c r="B903" t="s">
+      <c r="B903" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C903" t="s">
@@ -13880,7 +13881,7 @@
       <c r="A904" s="1">
         <v>44320.755636574075</v>
       </c>
-      <c r="B904" t="s">
+      <c r="B904" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C904" t="s">
@@ -13891,7 +13892,7 @@
       <c r="A905" s="1">
         <v>44320.755694444444</v>
       </c>
-      <c r="B905" t="s">
+      <c r="B905" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C905" t="s">
@@ -13902,7 +13903,7 @@
       <c r="A906" s="1">
         <v>44320.755729166667</v>
       </c>
-      <c r="B906" t="s">
+      <c r="B906" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C906" t="s">
@@ -13913,7 +13914,7 @@
       <c r="A907" s="1">
         <v>44320.755798611113</v>
       </c>
-      <c r="B907" t="s">
+      <c r="B907" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C907" t="s">
@@ -13924,7 +13925,7 @@
       <c r="A908" s="1">
         <v>44320.75582175926</v>
       </c>
-      <c r="B908" t="s">
+      <c r="B908" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C908" t="s">
@@ -13935,7 +13936,7 @@
       <c r="A909" s="1">
         <v>44320.755844907406</v>
       </c>
-      <c r="B909" t="s">
+      <c r="B909" s="2" t="s">
         <v>940</v>
       </c>
       <c r="C909" t="s">
@@ -13946,7 +13947,7 @@
       <c r="A910" s="1">
         <v>44320.755856481483</v>
       </c>
-      <c r="B910" t="s">
+      <c r="B910" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C910" t="s">
@@ -13957,7 +13958,7 @@
       <c r="A911" s="1">
         <v>44320.755868055552</v>
       </c>
-      <c r="B911" t="s">
+      <c r="B911" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C911" t="s">
@@ -13968,7 +13969,7 @@
       <c r="A912" s="1">
         <v>44320.755879629629</v>
       </c>
-      <c r="B912" t="s">
+      <c r="B912" s="2" t="s">
         <v>837</v>
       </c>
       <c r="C912" t="s">
@@ -13979,7 +13980,7 @@
       <c r="A913" s="1">
         <v>44320.755995370368</v>
       </c>
-      <c r="B913" t="s">
+      <c r="B913" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C913" t="s">
@@ -13990,7 +13991,7 @@
       <c r="A914" s="1">
         <v>44320.756006944444</v>
       </c>
-      <c r="B914" t="s">
+      <c r="B914" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C914" t="s">
@@ -14001,7 +14002,7 @@
       <c r="A915" s="1">
         <v>44320.756006944444</v>
       </c>
-      <c r="B915" t="s">
+      <c r="B915" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C915" t="s">
@@ -14012,7 +14013,7 @@
       <c r="A916" s="1">
         <v>44320.756018518521</v>
       </c>
-      <c r="B916" t="s">
+      <c r="B916" s="2" t="s">
         <v>837</v>
       </c>
       <c r="C916" t="s">
@@ -14023,7 +14024,7 @@
       <c r="A917" s="1">
         <v>44320.756053240744</v>
       </c>
-      <c r="B917" t="s">
+      <c r="B917" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C917" t="s">
@@ -14034,7 +14035,7 @@
       <c r="A918" s="1">
         <v>44320.756099537037</v>
       </c>
-      <c r="B918" t="s">
+      <c r="B918" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C918" t="s">
@@ -14045,7 +14046,7 @@
       <c r="A919" s="1">
         <v>44320.75613425926</v>
       </c>
-      <c r="B919" t="s">
+      <c r="B919" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C919" t="s">
@@ -14056,7 +14057,7 @@
       <c r="A920" s="1">
         <v>44320.756192129629</v>
       </c>
-      <c r="B920" t="s">
+      <c r="B920" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C920" t="s">
@@ -14067,7 +14068,7 @@
       <c r="A921" s="1">
         <v>44320.756249999999</v>
       </c>
-      <c r="B921" t="s">
+      <c r="B921" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C921" t="s">
@@ -14078,7 +14079,7 @@
       <c r="A922" s="1">
         <v>44320.756284722222</v>
       </c>
-      <c r="B922" t="s">
+      <c r="B922" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C922" t="s">
@@ -14089,7 +14090,7 @@
       <c r="A923" s="1">
         <v>44320.756342592591</v>
       </c>
-      <c r="B923" t="s">
+      <c r="B923" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C923" t="s">
@@ -14100,7 +14101,7 @@
       <c r="A924" s="1">
         <v>44320.756377314814</v>
       </c>
-      <c r="B924" t="s">
+      <c r="B924" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C924" t="s">
@@ -14111,7 +14112,7 @@
       <c r="A925" s="1">
         <v>44320.756435185183</v>
       </c>
-      <c r="B925" t="s">
+      <c r="B925" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C925" t="s">
@@ -14122,7 +14123,7 @@
       <c r="A926" s="1">
         <v>44320.756481481483</v>
       </c>
-      <c r="B926" t="s">
+      <c r="B926" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C926" t="s">
@@ -14133,7 +14134,7 @@
       <c r="A927" s="1">
         <v>44320.756562499999</v>
       </c>
-      <c r="B927" t="s">
+      <c r="B927" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C927" t="s">
@@ -14144,7 +14145,7 @@
       <c r="A928" s="1">
         <v>44320.756574074076</v>
       </c>
-      <c r="B928" t="s">
+      <c r="B928" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C928" t="s">
@@ -14155,7 +14156,7 @@
       <c r="A929" s="1">
         <v>44320.756631944445</v>
       </c>
-      <c r="B929" t="s">
+      <c r="B929" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C929" t="s">
@@ -14166,7 +14167,7 @@
       <c r="A930" s="1">
         <v>44320.756655092591</v>
       </c>
-      <c r="B930" t="s">
+      <c r="B930" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C930" t="s">
@@ -14177,7 +14178,7 @@
       <c r="A931" s="1">
         <v>44320.756678240738</v>
       </c>
-      <c r="B931" t="s">
+      <c r="B931" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C931" t="s">
@@ -14188,7 +14189,7 @@
       <c r="A932" s="1">
         <v>44320.756678240738</v>
       </c>
-      <c r="B932" t="s">
+      <c r="B932" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C932" t="s">
@@ -14199,7 +14200,7 @@
       <c r="A933" s="1">
         <v>44320.756701388891</v>
       </c>
-      <c r="B933" t="s">
+      <c r="B933" s="2" t="s">
         <v>972</v>
       </c>
       <c r="C933" t="s">
@@ -14210,7 +14211,7 @@
       <c r="A934" s="1">
         <v>44320.756840277776</v>
       </c>
-      <c r="B934" t="s">
+      <c r="B934" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C934" t="s">
@@ -14221,7 +14222,7 @@
       <c r="A935" s="1">
         <v>44320.756886574076</v>
       </c>
-      <c r="B935" t="s">
+      <c r="B935" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C935" t="s">
@@ -14232,7 +14233,7 @@
       <c r="A936" s="1">
         <v>44320.756956018522</v>
       </c>
-      <c r="B936" t="s">
+      <c r="B936" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C936" t="s">
@@ -14243,7 +14244,7 @@
       <c r="A937" s="1">
         <v>44320.757002314815</v>
       </c>
-      <c r="B937" t="s">
+      <c r="B937" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C937" t="s">
@@ -14254,7 +14255,7 @@
       <c r="A938" s="1">
         <v>44320.757164351853</v>
       </c>
-      <c r="B938" t="s">
+      <c r="B938" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C938" t="s">
@@ -14265,7 +14266,7 @@
       <c r="A939" s="1">
         <v>44320.757187499999</v>
       </c>
-      <c r="B939" t="s">
+      <c r="B939" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C939" t="s">
@@ -14276,7 +14277,7 @@
       <c r="A940" s="1">
         <v>44320.757210648146</v>
       </c>
-      <c r="B940" t="s">
+      <c r="B940" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C940" t="s">
@@ -14287,7 +14288,7 @@
       <c r="A941" s="1">
         <v>44320.757233796299</v>
       </c>
-      <c r="B941" t="s">
+      <c r="B941" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C941" t="s">
@@ -14298,7 +14299,7 @@
       <c r="A942" s="1">
         <v>44320.757337962961</v>
       </c>
-      <c r="B942" t="s">
+      <c r="B942" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C942" t="s">
@@ -14309,7 +14310,7 @@
       <c r="A943" s="1">
         <v>44320.757349537038</v>
       </c>
-      <c r="B943" t="s">
+      <c r="B943" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C943" t="s">
@@ -14320,7 +14321,7 @@
       <c r="A944" s="1">
         <v>44320.757395833331</v>
       </c>
-      <c r="B944" t="s">
+      <c r="B944" s="2" t="s">
         <v>867</v>
       </c>
       <c r="C944" t="s">
@@ -14331,7 +14332,7 @@
       <c r="A945" s="1">
         <v>44320.757395833331</v>
       </c>
-      <c r="B945" t="s">
+      <c r="B945" s="2" t="s">
         <v>837</v>
       </c>
       <c r="C945" t="s">
@@ -14342,7 +14343,7 @@
       <c r="A946" s="1">
         <v>44320.757557870369</v>
       </c>
-      <c r="B946" t="s">
+      <c r="B946" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C946" t="s">
@@ -14353,7 +14354,7 @@
       <c r="A947" s="1">
         <v>44320.757604166669</v>
       </c>
-      <c r="B947" t="s">
+      <c r="B947" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C947" t="s">
